--- a/legendre_out/DATA/p1/p1IntegrandSplinePoints10.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandSplinePoints10.000000.xlsx
@@ -386,7 +386,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>7.085467152996098e-06</v>
+        <v>3.709476882398971e-06</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.755890524555461</v>
       </c>
       <c r="C3" t="n">
-        <v>7.205796933455152e-06</v>
+        <v>3.866416004267371e-06</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.756807732038326</v>
       </c>
       <c r="C4" t="n">
-        <v>7.319198237523623e-06</v>
+        <v>4.010457316849821e-06</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.757724939521191</v>
       </c>
       <c r="C5" t="n">
-        <v>7.426498108790468e-06</v>
+        <v>4.142715284499075e-06</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.758642147004056</v>
       </c>
       <c r="C6" t="n">
-        <v>7.528523590844636e-06</v>
+        <v>4.264304371567891e-06</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.759559354486921</v>
       </c>
       <c r="C7" t="n">
-        <v>7.62610172727508e-06</v>
+        <v>4.376339042409022e-06</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.760476561969786</v>
       </c>
       <c r="C8" t="n">
-        <v>7.72005956167076e-06</v>
+        <v>4.479933761375231e-06</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.761393769452651</v>
       </c>
       <c r="C9" t="n">
-        <v>7.811224137620617e-06</v>
+        <v>4.576202992819267e-06</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.762310976935516</v>
       </c>
       <c r="C10" t="n">
-        <v>7.900422498713611e-06</v>
+        <v>4.666261201093893e-06</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.763228184418381</v>
       </c>
       <c r="C11" t="n">
-        <v>7.988481688538693e-06</v>
+        <v>4.751222850551863e-06</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.764145391901245</v>
       </c>
       <c r="C12" t="n">
-        <v>8.076228750684776e-06</v>
+        <v>4.832202405545894e-06</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.76506259938411</v>
       </c>
       <c r="C13" t="n">
-        <v>8.164490728740895e-06</v>
+        <v>4.910314330428825e-06</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.765979806866975</v>
       </c>
       <c r="C14" t="n">
-        <v>8.254094666295959e-06</v>
+        <v>4.986673089553368e-06</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.76689701434984</v>
       </c>
       <c r="C15" t="n">
-        <v>8.345867606938923e-06</v>
+        <v>5.062393147272282e-06</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.767814221832705</v>
       </c>
       <c r="C16" t="n">
-        <v>8.440636594258738e-06</v>
+        <v>5.138588967938321e-06</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.76873142931557</v>
       </c>
       <c r="C17" t="n">
-        <v>8.53922867184436e-06</v>
+        <v>5.216375015904247e-06</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.769648636798435</v>
       </c>
       <c r="C18" t="n">
-        <v>8.642470883284738e-06</v>
+        <v>5.29686575552281e-06</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.7705658442813</v>
       </c>
       <c r="C19" t="n">
-        <v>8.751190272168826e-06</v>
+        <v>5.381175651146771e-06</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.771483051764165</v>
       </c>
       <c r="C20" t="n">
-        <v>8.866213882085577e-06</v>
+        <v>5.470419167128885e-06</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.77240025924703</v>
       </c>
       <c r="C21" t="n">
-        <v>8.988368756623945e-06</v>
+        <v>5.56571076782191e-06</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.773317466729895</v>
       </c>
       <c r="C22" t="n">
-        <v>9.118481939372883e-06</v>
+        <v>5.668164917578604e-06</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.77423467421276</v>
       </c>
       <c r="C23" t="n">
-        <v>9.257380473921342e-06</v>
+        <v>5.778896080751719e-06</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.775151881695625</v>
       </c>
       <c r="C24" t="n">
-        <v>9.405891403858278e-06</v>
+        <v>5.899018721694016e-06</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.77606908917849</v>
       </c>
       <c r="C25" t="n">
-        <v>9.564841772772636e-06</v>
+        <v>6.029647304758247e-06</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.776986296661355</v>
       </c>
       <c r="C26" t="n">
-        <v>9.735058624253376e-06</v>
+        <v>6.171896294297174e-06</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.777903504144219</v>
       </c>
       <c r="C27" t="n">
-        <v>9.917369001889452e-06</v>
+        <v>6.32688015466355e-06</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.778820711627084</v>
       </c>
       <c r="C28" t="n">
-        <v>1.011259994926981e-05</v>
+        <v>6.495713350210133e-06</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.779737919109949</v>
       </c>
       <c r="C29" t="n">
-        <v>1.032157850998341e-05</v>
+        <v>6.679510345289679e-06</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.780655126592814</v>
       </c>
       <c r="C30" t="n">
-        <v>1.054513172761908e-05</v>
+        <v>6.879385604254844e-06</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.781572334075679</v>
       </c>
       <c r="C31" t="n">
-        <v>1.078408664576601e-05</v>
+        <v>7.096453591458579e-06</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.782489541558544</v>
       </c>
       <c r="C32" t="n">
-        <v>1.103927030801303e-05</v>
+        <v>7.331828771253548e-06</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.783406749041409</v>
       </c>
       <c r="C33" t="n">
-        <v>1.13115097579491e-05</v>
+        <v>7.586625607992503e-06</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.784323956524274</v>
       </c>
       <c r="C34" t="n">
-        <v>1.160163203916317e-05</v>
+        <v>7.861958566028207e-06</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.785241164007139</v>
       </c>
       <c r="C35" t="n">
-        <v>1.19104641952442e-05</v>
+        <v>8.158942109713412e-06</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.786158371490004</v>
       </c>
       <c r="C36" t="n">
-        <v>1.223883326978113e-05</v>
+        <v>8.478690703400876e-06</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.787075578972869</v>
       </c>
       <c r="C37" t="n">
-        <v>1.258756630636292e-05</v>
+        <v>8.822318811443358e-06</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.787992786455733</v>
       </c>
       <c r="C38" t="n">
-        <v>1.295749034857854e-05</v>
+        <v>9.190940898193613e-06</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.788909993938598</v>
       </c>
       <c r="C39" t="n">
-        <v>1.334943244001691e-05</v>
+        <v>9.585671428004396e-06</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.789827201421463</v>
       </c>
       <c r="C40" t="n">
-        <v>1.3764219624267e-05</v>
+        <v>1.000762486522846e-05</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.790744408904328</v>
       </c>
       <c r="C41" t="n">
-        <v>1.420267894491777e-05</v>
+        <v>1.045791567421858e-05</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.791661616387193</v>
       </c>
       <c r="C42" t="n">
-        <v>1.466563744555815e-05</v>
+        <v>1.093765831932749e-05</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.792578823870058</v>
       </c>
       <c r="C43" t="n">
-        <v>1.515392216977712e-05</v>
+        <v>1.144796726490796e-05</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.793496031352923</v>
       </c>
       <c r="C44" t="n">
-        <v>1.566836016116361e-05</v>
+        <v>1.198995697531274e-05</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.794413238835788</v>
       </c>
       <c r="C45" t="n">
-        <v>1.620977846330659e-05</v>
+        <v>1.256474191489458e-05</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.795330446318653</v>
       </c>
       <c r="C46" t="n">
-        <v>1.6779004119795e-05</v>
+        <v>1.317343654800626e-05</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.796247653801518</v>
       </c>
       <c r="C47" t="n">
-        <v>1.737686417421781e-05</v>
+        <v>1.381715533900052e-05</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.797164861284383</v>
       </c>
       <c r="C48" t="n">
-        <v>1.800418567016395e-05</v>
+        <v>1.449701275223011e-05</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.798082068767247</v>
       </c>
       <c r="C49" t="n">
-        <v>1.866180719359234e-05</v>
+        <v>1.521413245333045e-05</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.798999276250112</v>
       </c>
       <c r="C50" t="n">
-        <v>1.935337989620885e-05</v>
+        <v>1.597188021356888e-05</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.799916483732977</v>
       </c>
       <c r="C51" t="n">
-        <v>2.008901994760079e-05</v>
+        <v>1.677877555146845e-05</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.800833691215842</v>
       </c>
       <c r="C52" t="n">
-        <v>2.087974847094978e-05</v>
+        <v>1.764405939146162e-05</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.801750898698707</v>
       </c>
       <c r="C53" t="n">
-        <v>2.173658658943745e-05</v>
+        <v>1.857697265798085e-05</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.802668106181572</v>
       </c>
       <c r="C54" t="n">
-        <v>2.267055542624542e-05</v>
+        <v>1.95867562754586e-05</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.803585313664437</v>
       </c>
       <c r="C55" t="n">
-        <v>2.369267610455533e-05</v>
+        <v>2.068265116832735e-05</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.804502521147302</v>
       </c>
       <c r="C56" t="n">
-        <v>2.481396974754879e-05</v>
+        <v>2.187389826101955e-05</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.805419728630167</v>
       </c>
       <c r="C57" t="n">
-        <v>2.604545747840745e-05</v>
+        <v>2.316973847796767e-05</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.806336936113032</v>
       </c>
       <c r="C58" t="n">
-        <v>2.739816042031293e-05</v>
+        <v>2.457941274360418e-05</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.807254143595897</v>
       </c>
       <c r="C59" t="n">
-        <v>2.888309969644686e-05</v>
+        <v>2.611216198236153e-05</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.808171351078762</v>
       </c>
       <c r="C60" t="n">
-        <v>3.051129642999086e-05</v>
+        <v>2.777722711867219e-05</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.809088558561627</v>
       </c>
       <c r="C61" t="n">
-        <v>3.229377174412656e-05</v>
+        <v>2.958384907696862e-05</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.810005766044492</v>
       </c>
       <c r="C62" t="n">
-        <v>3.42415467620356e-05</v>
+        <v>3.15412687816833e-05</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.810922973527357</v>
       </c>
       <c r="C63" t="n">
-        <v>3.63656426068996e-05</v>
+        <v>3.365872715724867e-05</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.811840181010222</v>
       </c>
       <c r="C64" t="n">
-        <v>3.867708040190019e-05</v>
+        <v>3.594546512809722e-05</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.812757388493087</v>
       </c>
       <c r="C65" t="n">
-        <v>4.118688127021899e-05</v>
+        <v>3.841072361866138e-05</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.813674595975951</v>
       </c>
       <c r="C66" t="n">
-        <v>4.390606633503764e-05</v>
+        <v>4.106374355337365e-05</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.814591803458816</v>
       </c>
       <c r="C67" t="n">
-        <v>4.684565671953627e-05</v>
+        <v>4.391376585666504e-05</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.815509010941681</v>
       </c>
       <c r="C68" t="n">
-        <v>5.002474535259048e-05</v>
+        <v>4.697844576731657e-05</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.816426218424546</v>
       </c>
       <c r="C69" t="n">
-        <v>5.35489228059969e-05</v>
+        <v>5.036560649712063e-05</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.817343425907411</v>
       </c>
       <c r="C70" t="n">
-        <v>5.757628732218776e-05</v>
+        <v>5.423780697168627e-05</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.818260633390276</v>
       </c>
       <c r="C71" t="n">
-        <v>6.226567538447777e-05</v>
+        <v>5.875837568307218e-05</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.819177840873141</v>
       </c>
       <c r="C72" t="n">
-        <v>6.777592347618164e-05</v>
+        <v>6.409064112333708e-05</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.820095048356006</v>
       </c>
       <c r="C73" t="n">
-        <v>7.426586808061407e-05</v>
+        <v>7.039793178453962e-05</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.821012255838871</v>
       </c>
       <c r="C74" t="n">
-        <v>8.189434568108978e-05</v>
+        <v>7.784357615873851e-05</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.821929463321736</v>
       </c>
       <c r="C75" t="n">
-        <v>9.082019276092346e-05</v>
+        <v>8.659090273799243e-05</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.8228466708046</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0001012022458034298</v>
+        <v>9.68032400143601e-05</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.823763878287465</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0001131993412919236</v>
+        <v>0.0001086439164799002</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.82468108577033</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0001269703157097195</v>
+        <v>0.0001222762606266714</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.825598293253195</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0001426740055401322</v>
+        <v>0.0001378636009467324</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.82651550073606</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0001604692472664764</v>
+        <v>0.000155569265932142</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.827432708218925</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0001805148773720668</v>
+        <v>0.0001755565840749587</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.82834991570179</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0002029326487235466</v>
+        <v>0.0001979513685083742</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.829267123184655</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0002274248571574136</v>
+        <v>0.0002224550918500739</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.83018433066752</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0002534286075873643</v>
+        <v>0.0002485009483368807</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.831101538150385</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0002803768226054461</v>
+        <v>0.0002755179011917179</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.83201874563325</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0003077024248036935</v>
+        <v>0.0003029349136374959</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.832935953116114</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0003348383367741806</v>
+        <v>0.0003301809488971652</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.833853160598979</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0003612174811089416</v>
+        <v>0.0003566849701936359</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.834770368081844</v>
       </c>
       <c r="C89" t="n">
-        <v>0.000386272780400024</v>
+        <v>0.0003818759407498316</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.835687575564709</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0004094371572394753</v>
+        <v>0.000405182823788676</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.836604783047574</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0004301435342193429</v>
+        <v>0.0004260345825330925</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.837521990530439</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0004478248339316746</v>
+        <v>0.000443860180206005</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.838439198013304</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0004619139789685175</v>
+        <v>0.0004580885800303366</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.839356405496169</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0004718438919219193</v>
+        <v>0.0004681487452290113</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.840273612979034</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0004770474953839273</v>
+        <v>0.0004734696390249524</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.841190820461899</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0004770105099600036</v>
+        <v>0.0004735332946377824</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.842108027944764</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0004718496194680344</v>
+        <v>0.0004684559588386377</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.843025235427629</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0004620968929412066</v>
+        <v>0.0004587714034261917</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.843942442910494</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0004482917057104338</v>
+        <v>0.0004450207441344506</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.844859650393359</v>
       </c>
       <c r="C100" t="n">
-        <v>0.0004309734331066303</v>
+        <v>0.0004277450966974217</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.845776857876224</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0004106814504607099</v>
+        <v>0.0004074855768491118</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.846694065359089</v>
       </c>
       <c r="C102" t="n">
-        <v>0.0003879551331035869</v>
+        <v>0.0003847833003235277</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.847611272841954</v>
       </c>
       <c r="C103" t="n">
-        <v>0.000363333856366175</v>
+        <v>0.0003601793828546763</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.848528480324818</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0003373569955794012</v>
+        <v>0.0003342149401765773</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.849445687807683</v>
       </c>
       <c r="C105" t="n">
-        <v>0.0003105639260741541</v>
+        <v>0.000307431088023212</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.850362895290548</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0002834940231813601</v>
+        <v>0.0002803689421286</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.851280102773413</v>
       </c>
       <c r="C107" t="n">
-        <v>0.0002566866622319331</v>
+        <v>0.0002535696182267478</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.852197310256278</v>
       </c>
       <c r="C108" t="n">
-        <v>0.0002306812185567871</v>
+        <v>0.0002275742320516624</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.853114517739143</v>
       </c>
       <c r="C109" t="n">
-        <v>0.0002060170674868363</v>
+        <v>0.0002029238993373507</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.854031725222008</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0001832335843529946</v>
+        <v>0.0001801597358178195</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.854948932704873</v>
       </c>
       <c r="C111" t="n">
-        <v>0.0001628311034808455</v>
+        <v>0.0001597831118670828</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.855866140187738</v>
       </c>
       <c r="C112" t="n">
-        <v>0.0001447616062848909</v>
+        <v>0.000141737151890085</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.856783347670603</v>
       </c>
       <c r="C113" t="n">
-        <v>0.0001285725505675159</v>
+        <v>0.0001255531585045716</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.857700555153468</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0001138019560810286</v>
+        <v>0.0001107528260025091</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.858617762636332</v>
       </c>
       <c r="C115" t="n">
-        <v>0.000100051898378427</v>
+        <v>9.692589911993341e-05</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.859534970119197</v>
       </c>
       <c r="C116" t="n">
-        <v>8.729417965893135e-05</v>
+        <v>8.405490610645093e-05</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.860452177602062</v>
       </c>
       <c r="C117" t="n">
-        <v>7.563296589999652e-05</v>
+        <v>7.226299345061784e-05</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.861369385084927</v>
       </c>
       <c r="C118" t="n">
-        <v>6.517259117007118e-05</v>
+        <v>6.167348621446279e-05</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.862286592567792</v>
       </c>
       <c r="C119" t="n">
-        <v>5.601639896124398e-05</v>
+        <v>5.240861833915733e-05</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.863203800050657</v>
       </c>
       <c r="C120" t="n">
-        <v>4.819140372064386e-05</v>
+        <v>4.450654724604984e-05</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.864121007533522</v>
       </c>
       <c r="C121" t="n">
-        <v>4.159541302696281e-05</v>
+        <v>3.786310886090141e-05</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.865038215016387</v>
       </c>
       <c r="C122" t="n">
-        <v>3.611374089384418e-05</v>
+        <v>3.236037743500137e-05</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.865955422499252</v>
       </c>
       <c r="C123" t="n">
-        <v>3.16317013349333e-05</v>
+        <v>2.788042721964099e-05</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.866872629982117</v>
       </c>
       <c r="C124" t="n">
-        <v>2.803460836386919e-05</v>
+        <v>2.430533246610532e-05</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.867789837464982</v>
       </c>
       <c r="C125" t="n">
-        <v>2.52077759942976e-05</v>
+        <v>2.151716742568609e-05</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.868707044947846</v>
       </c>
       <c r="C126" t="n">
-        <v>2.303651823986189e-05</v>
+        <v>1.939800634967265e-05</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.869624252430711</v>
       </c>
       <c r="C127" t="n">
-        <v>2.140614911420541e-05</v>
+        <v>1.782992348935434e-05</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.870541459913576</v>
       </c>
       <c r="C128" t="n">
-        <v>2.02019826309715e-05</v>
+        <v>1.669499309602048e-05</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.871458667396441</v>
       </c>
       <c r="C129" t="n">
-        <v>1.930933280380352e-05</v>
+        <v>1.587528942096042e-05</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.872375874879306</v>
       </c>
       <c r="C130" t="n">
-        <v>1.86135136463448e-05</v>
+        <v>1.525288671546349e-05</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.873293082362171</v>
       </c>
       <c r="C131" t="n">
-        <v>1.79998391722387e-05</v>
+        <v>1.470985923081902e-05</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.874210289845036</v>
       </c>
       <c r="C132" t="n">
-        <v>1.735362339512858e-05</v>
+        <v>1.412828121831635e-05</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.875127497327901</v>
       </c>
       <c r="C133" t="n">
-        <v>1.65602218467439e-05</v>
+        <v>1.339027139417721e-05</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.876044704810766</v>
       </c>
       <c r="C134" t="n">
-        <v>1.556243576404833e-05</v>
+        <v>1.243947152727808e-05</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.876961912293631</v>
       </c>
       <c r="C135" t="n">
-        <v>1.447451727660045e-05</v>
+        <v>1.14031434195305e-05</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.877879119776496</v>
       </c>
       <c r="C136" t="n">
-        <v>1.34425640198813e-05</v>
+        <v>1.044265469032529e-05</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.878796327259361</v>
       </c>
       <c r="C137" t="n">
-        <v>1.261267362937187e-05</v>
+        <v>9.719372959053224e-06</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.879713534742226</v>
       </c>
       <c r="C138" t="n">
-        <v>1.212635909749418e-05</v>
+        <v>9.389247360263851e-06</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.880630742225091</v>
       </c>
       <c r="C139" t="n">
-        <v>1.202905425512353e-05</v>
+        <v>9.494673263535765e-06</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.881547949707956</v>
       </c>
       <c r="C140" t="n">
-        <v>1.227504668703009e-05</v>
+        <v>9.970322373486312e-06</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.88246515719082</v>
       </c>
       <c r="C141" t="n">
-        <v>1.28150267772714e-05</v>
+        <v>1.0746614945431e-05</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.883382364673685</v>
       </c>
       <c r="C142" t="n">
-        <v>1.359968490990586e-05</v>
+        <v>1.175397123468654e-05</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.88429957215655</v>
       </c>
       <c r="C143" t="n">
-        <v>1.457971146899112e-05</v>
+        <v>1.292281149656857e-05</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.885216779639415</v>
       </c>
       <c r="C144" t="n">
-        <v>1.570579683858507e-05</v>
+        <v>1.418355598639303e-05</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.88613398712228</v>
       </c>
       <c r="C145" t="n">
-        <v>1.692863140274556e-05</v>
+        <v>1.546662495947587e-05</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.887051194605145</v>
       </c>
       <c r="C146" t="n">
-        <v>1.819890554553046e-05</v>
+        <v>1.670243867113302e-05</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.88796840208801</v>
       </c>
       <c r="C147" t="n">
-        <v>1.946731831164125e-05</v>
+        <v>1.782143094248401e-05</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.888885609570875</v>
       </c>
       <c r="C148" t="n">
-        <v>2.070356153728604e-05</v>
+        <v>1.878378540190618e-05</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.88980281705374</v>
       </c>
       <c r="C149" t="n">
-        <v>2.193659184311404e-05</v>
+        <v>1.964251647169625e-05</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.890720024536605</v>
       </c>
       <c r="C150" t="n">
-        <v>2.320689316646176e-05</v>
+        <v>2.046869465872009e-05</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.89163723201947</v>
       </c>
       <c r="C151" t="n">
-        <v>2.455494944466574e-05</v>
+        <v>2.133339046984357e-05</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.892554439502335</v>
       </c>
       <c r="C152" t="n">
-        <v>2.602124461506248e-05</v>
+        <v>2.230767441193254e-05</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.8934716469852</v>
       </c>
       <c r="C153" t="n">
-        <v>2.764626261498853e-05</v>
+        <v>2.34626169918529e-05</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.894388854468064</v>
       </c>
       <c r="C154" t="n">
-        <v>2.947048738178038e-05</v>
+        <v>2.486928871647048e-05</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.895306061950929</v>
       </c>
       <c r="C155" t="n">
-        <v>3.153440285277456e-05</v>
+        <v>2.659876009265117e-05</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.896223269433794</v>
       </c>
       <c r="C156" t="n">
-        <v>3.38784929653076e-05</v>
+        <v>2.872210162726083e-05</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.897140476916659</v>
       </c>
       <c r="C157" t="n">
-        <v>3.655123360428023e-05</v>
+        <v>3.131355758866413e-05</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.898057684399524</v>
       </c>
       <c r="C158" t="n">
-        <v>3.965423112200002e-05</v>
+        <v>3.446847141166968e-05</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.898974891882389</v>
       </c>
       <c r="C159" t="n">
-        <v>4.331076603256866e-05</v>
+        <v>3.829079377227081e-05</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.899892099365254</v>
       </c>
       <c r="C160" t="n">
-        <v>4.764418278566832e-05</v>
+        <v>4.288450073655284e-05</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.900809306848119</v>
       </c>
       <c r="C161" t="n">
-        <v>5.27778258309785e-05</v>
+        <v>4.83535683705982e-05</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.901726514330984</v>
       </c>
       <c r="C162" t="n">
-        <v>5.883503961818634e-05</v>
+        <v>5.480197274049751e-05</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.902643721813849</v>
       </c>
       <c r="C163" t="n">
-        <v>6.593916859697172e-05</v>
+        <v>6.23336899123336e-05</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.903560929296713</v>
       </c>
       <c r="C164" t="n">
-        <v>7.421355721701682e-05</v>
+        <v>7.105269595219181e-05</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.904478136779578</v>
       </c>
       <c r="C165" t="n">
-        <v>8.378154992800385e-05</v>
+        <v>8.106296692615747e-05</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.905395344262443</v>
       </c>
       <c r="C166" t="n">
-        <v>9.476649117961505e-05</v>
+        <v>9.246847890031595e-05</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.906312551745308</v>
       </c>
       <c r="C167" t="n">
-        <v>0.0001072917254215325</v>
+        <v>0.0001053732079407525</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.907229759228173</v>
       </c>
       <c r="C168" t="n">
-        <v>0.0001214805971034385</v>
+        <v>0.0001198811301135524</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.908146966711038</v>
       </c>
       <c r="C169" t="n">
-        <v>0.0001374564506750153</v>
+        <v>0.0001360962214848011</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.909064174193903</v>
       </c>
       <c r="C170" t="n">
-        <v>0.0001553425274589088</v>
+        <v>0.0001541223607167862</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.909981381676768</v>
       </c>
       <c r="C171" t="n">
-        <v>0.0001751193790282456</v>
+        <v>0.0001739286555715788</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.910898589159633</v>
       </c>
       <c r="C172" t="n">
-        <v>0.0001963416890027581</v>
+        <v>0.000195081980240545</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.911815796642498</v>
       </c>
       <c r="C173" t="n">
-        <v>0.00021848503974918</v>
+        <v>0.0002170744975422246</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.912733004125363</v>
       </c>
       <c r="C174" t="n">
-        <v>0.0002410250136342455</v>
+        <v>0.0002393983702951573</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.913650211608228</v>
       </c>
       <c r="C175" t="n">
-        <v>0.0002634371930246883</v>
+        <v>0.000261545761317883</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.914567419091093</v>
       </c>
       <c r="C176" t="n">
-        <v>0.0002851971602872426</v>
+        <v>0.0002830088334289415</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.915484626573958</v>
       </c>
       <c r="C177" t="n">
-        <v>0.0003057804977886421</v>
+        <v>0.0003032797494468724</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.916401834056822</v>
       </c>
       <c r="C178" t="n">
-        <v>0.0003246627878956122</v>
+        <v>0.0003218506721902074</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.917319041539687</v>
       </c>
       <c r="C179" t="n">
-        <v>0.0003413196129749053</v>
+        <v>0.000338213764477504</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.918236249022552</v>
       </c>
       <c r="C180" t="n">
-        <v>0.0003552321885311068</v>
+        <v>0.0003518666633647579</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.919153456505417</v>
       </c>
       <c r="C181" t="n">
-        <v>0.0003661269796013455</v>
+        <v>0.00036254533740498</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.920070663988282</v>
       </c>
       <c r="C182" t="n">
-        <v>0.0003740651233091112</v>
+        <v>0.0003703109867572311</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.920987871471147</v>
       </c>
       <c r="C183" t="n">
-        <v>0.0003791318180060463</v>
+        <v>0.0003752481940859981</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.921905078954012</v>
       </c>
       <c r="C184" t="n">
-        <v>0.0003814122620437929</v>
+        <v>0.0003774415420557681</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.922822286436877</v>
       </c>
       <c r="C185" t="n">
-        <v>0.0003809916537739934</v>
+        <v>0.0003769756133310283</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.923739493919742</v>
       </c>
       <c r="C186" t="n">
-        <v>0.0003779551915482897</v>
+        <v>0.0003739349905762654</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.924656701402607</v>
       </c>
       <c r="C187" t="n">
-        <v>0.0003723880737183243</v>
+        <v>0.0003684042564559666</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.925573908885472</v>
       </c>
       <c r="C188" t="n">
-        <v>0.0003643754986357392</v>
+        <v>0.0003604679936346189</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.926491116368337</v>
       </c>
       <c r="C189" t="n">
-        <v>0.0003540027731106236</v>
+        <v>0.0003502108899064364</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.927408323851202</v>
       </c>
       <c r="C190" t="n">
-        <v>0.000341424126654943</v>
+        <v>0.0003377844404471113</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.928325531334067</v>
       </c>
       <c r="C191" t="n">
-        <v>0.0003269807599368583</v>
+        <v>0.000323521373219462</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.929242738816932</v>
       </c>
       <c r="C192" t="n">
-        <v>0.0003110452735543827</v>
+        <v>0.0003077848524146458</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.930159946299796</v>
       </c>
       <c r="C193" t="n">
-        <v>0.0002939902681055298</v>
+        <v>0.00029093804222382</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.931077153782661</v>
       </c>
       <c r="C194" t="n">
-        <v>0.0002761883441883132</v>
+        <v>0.0002733441068381423</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.931994361265526</v>
       </c>
       <c r="C195" t="n">
-        <v>0.0002580121024007465</v>
+        <v>0.00025536621044877</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.932911568748391</v>
       </c>
       <c r="C196" t="n">
-        <v>0.000239834143340843</v>
+        <v>0.0002373675172468606</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.933828776231256</v>
       </c>
       <c r="C197" t="n">
-        <v>0.0002220270676066165</v>
+        <v>0.0002197111914235715</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.934745983714121</v>
       </c>
       <c r="C198" t="n">
-        <v>0.0002049634757960882</v>
+        <v>0.0002027603971700681</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.935663191196986</v>
       </c>
       <c r="C199" t="n">
-        <v>0.0001889687733392495</v>
+        <v>0.0001868329659122925</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.936580398679851</v>
       </c>
       <c r="C200" t="n">
-        <v>0.0001740980645402346</v>
+        <v>0.000171987094499405</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.937497606162716</v>
       </c>
       <c r="C201" t="n">
-        <v>0.0001603103914209849</v>
+        <v>0.0001581887082818689</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.938414813645581</v>
       </c>
       <c r="C202" t="n">
-        <v>0.0001475646807338302</v>
+        <v>0.0001454036218892743</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.939332021128445</v>
       </c>
       <c r="C203" t="n">
-        <v>0.0001358198592311</v>
+        <v>0.000133597649951211</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.94024922861131</v>
       </c>
       <c r="C204" t="n">
-        <v>0.0001250348536651242</v>
+        <v>0.0001227366070972689</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.941166436094175</v>
       </c>
       <c r="C205" t="n">
-        <v>0.0001151685907882326</v>
+        <v>0.000112786307957038</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.94208364357704</v>
       </c>
       <c r="C206" t="n">
-        <v>0.0001061799973527547</v>
+        <v>0.0001037125671601081</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.943000851059905</v>
       </c>
       <c r="C207" t="n">
-        <v>9.802800011102025e-05</v>
+        <v>9.548119933606914e-05</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.94391805854277</v>
       </c>
       <c r="C208" t="n">
-        <v>9.067153457198149e-05</v>
+        <v>8.805791219147878e-05</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.944835266025635</v>
       </c>
       <c r="C209" t="n">
-        <v>8.406980181652988e-05</v>
+        <v>8.140517065780777e-05</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.9457524735085</v>
       </c>
       <c r="C210" t="n">
-        <v>7.81823099546303e-05</v>
+        <v>7.54816906777092e-05</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.946669680991365</v>
       </c>
       <c r="C211" t="n">
-        <v>7.296858419902604e-05</v>
+        <v>7.024597935978881e-05</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.94758688847423</v>
       </c>
       <c r="C212" t="n">
-        <v>6.838814976246019e-05</v>
+        <v>6.565654381265234e-05</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.948504095957095</v>
       </c>
       <c r="C213" t="n">
-        <v>6.440053185767595e-05</v>
+        <v>6.167189114490555e-05</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.94942130343996</v>
       </c>
       <c r="C214" t="n">
-        <v>6.096525569741645e-05</v>
+        <v>5.825052846515418e-05</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.950338510922824</v>
       </c>
       <c r="C215" t="n">
-        <v>5.804184649442621e-05</v>
+        <v>5.535096288200528e-05</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.951255718405689</v>
       </c>
       <c r="C216" t="n">
-        <v>5.558982946144554e-05</v>
+        <v>5.293170150406179e-05</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.952172925888554</v>
       </c>
       <c r="C217" t="n">
-        <v>5.356872981121914e-05</v>
+        <v>5.0951251439931e-05</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.953090133371419</v>
       </c>
       <c r="C218" t="n">
-        <v>5.193807275649021e-05</v>
+        <v>4.936811979821864e-05</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.954007340854284</v>
       </c>
       <c r="C219" t="n">
-        <v>5.065738351000189e-05</v>
+        <v>4.814081368753047e-05</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.954924548337149</v>
       </c>
       <c r="C220" t="n">
-        <v>4.968618728449734e-05</v>
+        <v>4.722784021647224e-05</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.955841755820014</v>
       </c>
       <c r="C221" t="n">
-        <v>4.898400929271977e-05</v>
+        <v>4.65877064936497e-05</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.956758963302879</v>
       </c>
       <c r="C222" t="n">
-        <v>4.851037474741229e-05</v>
+        <v>4.617891962766861e-05</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.957676170785744</v>
       </c>
       <c r="C223" t="n">
-        <v>4.822480886131811e-05</v>
+        <v>4.59599867271347e-05</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.958593378268609</v>
       </c>
       <c r="C224" t="n">
-        <v>4.808683684718038e-05</v>
+        <v>4.588941490065372e-05</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.959510585751474</v>
       </c>
       <c r="C225" t="n">
-        <v>4.805598391774226e-05</v>
+        <v>4.592571125683144e-05</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.960427793234339</v>
       </c>
       <c r="C226" t="n">
-        <v>4.809177528574693e-05</v>
+        <v>4.602738290427359e-05</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.961345000717204</v>
       </c>
       <c r="C227" t="n">
-        <v>4.815373616393753e-05</v>
+        <v>4.615293695158592e-05</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.962262208200069</v>
       </c>
       <c r="C228" t="n">
-        <v>4.820139176505728e-05</v>
+        <v>4.62608805073742e-05</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.963179415682934</v>
       </c>
       <c r="C229" t="n">
-        <v>4.819426730184929e-05</v>
+        <v>4.630972068024415e-05</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.964096623165799</v>
       </c>
       <c r="C230" t="n">
-        <v>4.809188798705675e-05</v>
+        <v>4.625796457880153e-05</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.965013830648664</v>
       </c>
       <c r="C231" t="n">
-        <v>4.785377903342283e-05</v>
+        <v>4.60641193116521e-05</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.965931038131528</v>
       </c>
       <c r="C232" t="n">
-        <v>4.74394656536907e-05</v>
+        <v>4.568669198740161e-05</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.966848245614393</v>
       </c>
       <c r="C233" t="n">
-        <v>4.680847306060352e-05</v>
+        <v>4.508418971465578e-05</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.967765453097258</v>
       </c>
       <c r="C234" t="n">
-        <v>4.592032646690445e-05</v>
+        <v>4.421511960202038e-05</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.968682660580123</v>
       </c>
       <c r="C235" t="n">
-        <v>4.473455108533731e-05</v>
+        <v>4.303798875810181e-05</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.969599868062988</v>
       </c>
       <c r="C236" t="n">
-        <v>4.321129532441829e-05</v>
+        <v>4.151194744288068e-05</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.970517075545853</v>
       </c>
       <c r="C237" t="n">
-        <v>4.135173776750212e-05</v>
+        <v>3.963848993486005e-05</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.971434283028718</v>
       </c>
       <c r="C238" t="n">
-        <v>3.922283907330315e-05</v>
+        <v>3.748699902212024e-05</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.972351490511583</v>
       </c>
       <c r="C239" t="n">
-        <v>3.689748192472351e-05</v>
+        <v>3.513296914844094e-05</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.973268697994448</v>
       </c>
       <c r="C240" t="n">
-        <v>3.444854900466538e-05</v>
+        <v>3.265189475760188e-05</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.974185905477313</v>
       </c>
       <c r="C241" t="n">
-        <v>3.194892299603094e-05</v>
+        <v>3.011927029338276e-05</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.975103112960177</v>
       </c>
       <c r="C242" t="n">
-        <v>2.947148658172232e-05</v>
+        <v>2.761059019956329e-05</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.976020320443042</v>
       </c>
       <c r="C243" t="n">
-        <v>2.708912244464171e-05</v>
+        <v>2.520134891992318e-05</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.976937527925907</v>
       </c>
       <c r="C244" t="n">
-        <v>2.487471326769126e-05</v>
+        <v>2.296704089824215e-05</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.977854735408772</v>
       </c>
       <c r="C245" t="n">
-        <v>2.290114173377313e-05</v>
+        <v>2.098316057829991e-05</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.978771942891637</v>
       </c>
       <c r="C246" t="n">
-        <v>2.124129052578949e-05</v>
+        <v>1.932520240387617e-05</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.979689150374502</v>
       </c>
       <c r="C247" t="n">
-        <v>1.99680423266425e-05</v>
+        <v>1.806866081875064e-05</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.980606357857367</v>
       </c>
       <c r="C248" t="n">
-        <v>1.915427981923431e-05</v>
+        <v>1.728903026670303e-05</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.981523565340232</v>
       </c>
       <c r="C249" t="n">
-        <v>1.88728856864671e-05</v>
+        <v>1.706180519151305e-05</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.982440772823097</v>
       </c>
       <c r="C250" t="n">
-        <v>1.919599719727693e-05</v>
+        <v>1.746170457249826e-05</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.983357980305962</v>
       </c>
       <c r="C251" t="n">
-        <v>2.014058818690644e-05</v>
+        <v>1.850606010568798e-05</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.984275187788826</v>
       </c>
       <c r="C252" t="n">
-        <v>2.163151646162932e-05</v>
+        <v>2.01163739076982e-05</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.985192395271691</v>
       </c>
       <c r="C253" t="n">
-        <v>2.358488919419779e-05</v>
+        <v>2.220504469002273e-05</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.986109602754556</v>
       </c>
       <c r="C254" t="n">
-        <v>2.591681355736195e-05</v>
+        <v>2.468447116415312e-05</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.987026810237421</v>
       </c>
       <c r="C255" t="n">
-        <v>2.854339672387255e-05</v>
+        <v>2.746705204158155e-05</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.987944017720286</v>
       </c>
       <c r="C256" t="n">
-        <v>3.138074586648035e-05</v>
+        <v>3.046518603380026e-05</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.988861225203151</v>
       </c>
       <c r="C257" t="n">
-        <v>3.434496815793603e-05</v>
+        <v>3.359127185230142e-05</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.989778432686016</v>
       </c>
       <c r="C258" t="n">
-        <v>3.735217077099036e-05</v>
+        <v>3.675770820857724e-05</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.990695640168881</v>
       </c>
       <c r="C259" t="n">
-        <v>4.031846087839405e-05</v>
+        <v>3.987689381411992e-05</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.991612847651746</v>
       </c>
       <c r="C260" t="n">
-        <v>4.315994565289785e-05</v>
+        <v>4.286122738042168e-05</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.992530055134611</v>
       </c>
       <c r="C261" t="n">
-        <v>4.579273226725247e-05</v>
+        <v>4.562310761897468e-05</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.993447262617476</v>
       </c>
       <c r="C262" t="n">
-        <v>4.813292789420865e-05</v>
+        <v>4.807493324127115e-05</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.994364470100341</v>
       </c>
       <c r="C263" t="n">
-        <v>5.009663970651713e-05</v>
+        <v>5.01291029588033e-05</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.995281677583206</v>
       </c>
       <c r="C264" t="n">
-        <v>5.160212498039525e-05</v>
+        <v>5.170026963346195e-05</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.996198885066071</v>
       </c>
       <c r="C265" t="n">
-        <v>5.26227995852685e-05</v>
+        <v>5.27609139325429e-05</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.997116092548936</v>
       </c>
       <c r="C266" t="n">
-        <v>5.319060766325602e-05</v>
+        <v>5.33448770723909e-05</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.998033300031801</v>
       </c>
       <c r="C267" t="n">
-        <v>5.334031813877677e-05</v>
+        <v>5.348896174736607e-05</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.998950507514666</v>
       </c>
       <c r="C268" t="n">
-        <v>5.310669993624968e-05</v>
+        <v>5.322997065182848e-05</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.999867714997531</v>
       </c>
       <c r="C269" t="n">
-        <v>5.252452198009363e-05</v>
+        <v>5.260470648013817e-05</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>4.000784922480396</v>
       </c>
       <c r="C270" t="n">
-        <v>5.162855319472759e-05</v>
+        <v>5.164997192665531e-05</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>4.00170212996326</v>
       </c>
       <c r="C271" t="n">
-        <v>5.045356250457051e-05</v>
+        <v>5.040256968573994e-05</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>4.002619337446125</v>
       </c>
       <c r="C272" t="n">
-        <v>4.903431883404127e-05</v>
+        <v>4.889930245175217e-05</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>4.00353654492899</v>
       </c>
       <c r="C273" t="n">
-        <v>4.740559110755885e-05</v>
+        <v>4.717697291905207e-05</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>4.004453752411855</v>
       </c>
       <c r="C274" t="n">
-        <v>4.560214824954214e-05</v>
+        <v>4.527238378199973e-05</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>4.00537095989472</v>
       </c>
       <c r="C275" t="n">
-        <v>4.365875918441009e-05</v>
+        <v>4.322233773495524e-05</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>4.006288167377585</v>
       </c>
       <c r="C276" t="n">
-        <v>4.161019283658163e-05</v>
+        <v>4.10636374722787e-05</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>4.00720537486045</v>
       </c>
       <c r="C277" t="n">
-        <v>3.949121813047568e-05</v>
+        <v>3.88330856883302e-05</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>4.008122582343315</v>
       </c>
       <c r="C278" t="n">
-        <v>3.733660399051119e-05</v>
+        <v>3.656748507746981e-05</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>4.009039789826179</v>
       </c>
       <c r="C279" t="n">
-        <v>3.518111934110915e-05</v>
+        <v>3.43036383340598e-05</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>4.009956997309045</v>
       </c>
       <c r="C280" t="n">
-        <v>3.305953310668227e-05</v>
+        <v>3.207834815245373e-05</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>4.010874204791909</v>
       </c>
       <c r="C281" t="n">
-        <v>3.100661421165764e-05</v>
+        <v>2.992841722702026e-05</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>4.011791412274774</v>
       </c>
       <c r="C282" t="n">
-        <v>2.905713158044813e-05</v>
+        <v>2.78906482521131e-05</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>4.012708619757639</v>
       </c>
       <c r="C283" t="n">
-        <v>2.724351193163919e-05</v>
+        <v>2.599935226768875e-05</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>4.013625827240504</v>
       </c>
       <c r="C284" t="n">
-        <v>2.557374388515354e-05</v>
+        <v>2.426284289909657e-05</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>4.014543034723369</v>
       </c>
       <c r="C285" t="n">
-        <v>2.404128060139049e-05</v>
+        <v>2.267397085155657e-05</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>4.015460242206234</v>
       </c>
       <c r="C286" t="n">
-        <v>2.26393827359548e-05</v>
+        <v>2.122538204238663e-05</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>4.016377449689099</v>
       </c>
       <c r="C287" t="n">
-        <v>2.13613109444512e-05</v>
+        <v>1.990972238890458e-05</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>4.017294657171964</v>
       </c>
       <c r="C288" t="n">
-        <v>2.020032588248445e-05</v>
+        <v>1.871963780842827e-05</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>4.018211864654829</v>
       </c>
       <c r="C289" t="n">
-        <v>1.91496882056593e-05</v>
+        <v>1.764777421827555e-05</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>4.019129072137694</v>
       </c>
       <c r="C290" t="n">
-        <v>1.820265856958049e-05</v>
+        <v>1.668677753576427e-05</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>4.020046279620558</v>
       </c>
       <c r="C291" t="n">
-        <v>1.735249762985276e-05</v>
+        <v>1.582929367821228e-05</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>4.020963487103423</v>
       </c>
       <c r="C292" t="n">
-        <v>1.659246604208087e-05</v>
+        <v>1.506796856293743e-05</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>4.021880694586288</v>
       </c>
       <c r="C293" t="n">
-        <v>1.591582446186956e-05</v>
+        <v>1.439544810725756e-05</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>4.022797902069153</v>
       </c>
       <c r="C294" t="n">
-        <v>1.531583354482357e-05</v>
+        <v>1.380437822849053e-05</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>4.023715109552018</v>
       </c>
       <c r="C295" t="n">
-        <v>1.478575394654766e-05</v>
+        <v>1.328740484395418e-05</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>4.024632317034883</v>
       </c>
       <c r="C296" t="n">
-        <v>1.431884632264658e-05</v>
+        <v>1.283717387096637e-05</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>4.025549524517748</v>
       </c>
       <c r="C297" t="n">
-        <v>1.390837132872506e-05</v>
+        <v>1.244633122684493e-05</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>4.026466732000613</v>
       </c>
       <c r="C298" t="n">
-        <v>1.354758962038786e-05</v>
+        <v>1.210752282890773e-05</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>4.027383939483478</v>
       </c>
       <c r="C299" t="n">
-        <v>1.322976185323972e-05</v>
+        <v>1.18133945944726e-05</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>4.028301146966343</v>
       </c>
       <c r="C300" t="n">
-        <v>1.294814868288539e-05</v>
+        <v>1.155659244085741e-05</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>4.029218354449208</v>
       </c>
       <c r="C301" t="n">
-        <v>1.269601842969786e-05</v>
+        <v>1.132977064503428e-05</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>4.030135561932073</v>
       </c>
       <c r="C302" t="n">
-        <v>1.246832884130815e-05</v>
+        <v>1.112742607430219e-05</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>4.031052769414938</v>
       </c>
       <c r="C303" t="n">
-        <v>1.226383917758187e-05</v>
+        <v>1.094820175237952e-05</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>4.031969976897803</v>
       </c>
       <c r="C304" t="n">
-        <v>1.208182809196753e-05</v>
+        <v>1.079130718466475e-05</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>4.032887184380668</v>
       </c>
       <c r="C305" t="n">
-        <v>1.192157423791362e-05</v>
+        <v>1.065595187655639e-05</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>4.033804391863533</v>
       </c>
       <c r="C306" t="n">
-        <v>1.178235626886863e-05</v>
+        <v>1.054134533345293e-05</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>4.034721599346398</v>
       </c>
       <c r="C307" t="n">
-        <v>1.166345283828106e-05</v>
+        <v>1.044669706075289e-05</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>4.035638806829263</v>
       </c>
       <c r="C308" t="n">
-        <v>1.15641425995994e-05</v>
+        <v>1.037121656385475e-05</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>4.036556014312128</v>
       </c>
       <c r="C309" t="n">
-        <v>1.148370420627214e-05</v>
+        <v>1.031411334815703e-05</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>4.037473221794992</v>
       </c>
       <c r="C310" t="n">
-        <v>1.142141631174778e-05</v>
+        <v>1.027459691905822e-05</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>4.038390429277857</v>
       </c>
       <c r="C311" t="n">
-        <v>1.13765575694748e-05</v>
+        <v>1.025187678195682e-05</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>4.039307636760722</v>
       </c>
       <c r="C312" t="n">
-        <v>1.134840663290171e-05</v>
+        <v>1.024516244225133e-05</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>4.040224844243587</v>
       </c>
       <c r="C313" t="n">
-        <v>1.133624215547699e-05</v>
+        <v>1.025366340534026e-05</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>4.041142051726452</v>
       </c>
       <c r="C314" t="n">
-        <v>1.133934279064913e-05</v>
+        <v>1.02765891766221e-05</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>4.042059259209317</v>
       </c>
       <c r="C315" t="n">
-        <v>1.135698719186664e-05</v>
+        <v>1.031314926149535e-05</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>4.042976466692181</v>
       </c>
       <c r="C316" t="n">
-        <v>1.138845401257796e-05</v>
+        <v>1.036255316535847e-05</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>4.043893674175047</v>
       </c>
       <c r="C317" t="n">
-        <v>1.143302190623171e-05</v>
+        <v>1.042401039361011e-05</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>4.044810881657911</v>
       </c>
       <c r="C318" t="n">
-        <v>1.148996952627619e-05</v>
+        <v>1.049673045164854e-05</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>4.045728089140776</v>
       </c>
       <c r="C319" t="n">
-        <v>1.155857552616005e-05</v>
+        <v>1.057992284487245e-05</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>4.046645296623641</v>
       </c>
       <c r="C320" t="n">
-        <v>1.163811855933174e-05</v>
+        <v>1.067279707868028e-05</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>4.047562504106506</v>
       </c>
       <c r="C321" t="n">
-        <v>1.172787727923975e-05</v>
+        <v>1.077456265847053e-05</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>4.048479711589371</v>
       </c>
       <c r="C322" t="n">
-        <v>1.182713033933258e-05</v>
+        <v>1.08844290896417e-05</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>4.049396919072236</v>
       </c>
       <c r="C323" t="n">
-        <v>1.19351563930587e-05</v>
+        <v>1.10016058775923e-05</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>4.050314126555101</v>
       </c>
       <c r="C324" t="n">
-        <v>1.205123409386663e-05</v>
+        <v>1.112530252772081e-05</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>4.051231334037966</v>
       </c>
       <c r="C325" t="n">
-        <v>1.217464209520484e-05</v>
+        <v>1.125472854542575e-05</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>4.052148541520831</v>
       </c>
       <c r="C326" t="n">
-        <v>1.230465905052184e-05</v>
+        <v>1.138909343610561e-05</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>4.053065749003696</v>
       </c>
       <c r="C327" t="n">
-        <v>1.244056361326612e-05</v>
+        <v>1.152760670515889e-05</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>4.053982956486561</v>
       </c>
       <c r="C328" t="n">
-        <v>1.258163443688616e-05</v>
+        <v>1.16694778579841e-05</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>4.054900163969426</v>
       </c>
       <c r="C329" t="n">
-        <v>1.272715017483047e-05</v>
+        <v>1.181391639997973e-05</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>4.05581737145229</v>
       </c>
       <c r="C330" t="n">
-        <v>1.287638948054754e-05</v>
+        <v>1.19601318365443e-05</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>4.056734578935155</v>
       </c>
       <c r="C331" t="n">
-        <v>1.302863100748585e-05</v>
+        <v>1.210733367307629e-05</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>4.05765178641802</v>
       </c>
       <c r="C332" t="n">
-        <v>1.318315340909391e-05</v>
+        <v>1.22547314149742e-05</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>4.058568993900885</v>
       </c>
       <c r="C333" t="n">
-        <v>1.33392353388202e-05</v>
+        <v>1.240153456763654e-05</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>4.05948620138375</v>
       </c>
       <c r="C334" t="n">
-        <v>1.349615545011321e-05</v>
+        <v>1.254695263646181e-05</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>4.060403408866615</v>
       </c>
       <c r="C335" t="n">
-        <v>1.365319239642145e-05</v>
+        <v>1.269019512684851e-05</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>4.06132061634948</v>
       </c>
       <c r="C336" t="n">
-        <v>1.380962483119341e-05</v>
+        <v>1.283047154419514e-05</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>4.062237823832345</v>
       </c>
       <c r="C337" t="n">
-        <v>1.396473140787757e-05</v>
+        <v>1.296699139390021e-05</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>4.06315503131521</v>
       </c>
       <c r="C338" t="n">
-        <v>1.411779077992243e-05</v>
+        <v>1.30989641813622e-05</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>4.064072238798075</v>
       </c>
       <c r="C339" t="n">
-        <v>1.426894393223037e-05</v>
+        <v>1.322651147763128e-05</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>4.06498944628094</v>
       </c>
       <c r="C340" t="n">
-        <v>1.442636544585815e-05</v>
+        <v>1.33582517804075e-05</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>4.065906653763805</v>
       </c>
       <c r="C341" t="n">
-        <v>1.460260141789301e-05</v>
+        <v>1.350742722671092e-05</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>4.06682386124667</v>
       </c>
       <c r="C342" t="n">
-        <v>1.481024171093609e-05</v>
+        <v>1.368732624321244e-05</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>4.067741068729535</v>
       </c>
       <c r="C343" t="n">
-        <v>1.506187618758852e-05</v>
+        <v>1.391123725658298e-05</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>4.0686582762124</v>
       </c>
       <c r="C344" t="n">
-        <v>1.537009471045144e-05</v>
+        <v>1.419244869349346e-05</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>4.069575483695265</v>
       </c>
       <c r="C345" t="n">
-        <v>1.574748714212597e-05</v>
+        <v>1.454424898061479e-05</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>4.07049269117813</v>
       </c>
       <c r="C346" t="n">
-        <v>1.620664334521328e-05</v>
+        <v>1.49799265446179e-05</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>4.071409898660995</v>
       </c>
       <c r="C347" t="n">
-        <v>1.676015318231448e-05</v>
+        <v>1.55127698121737e-05</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>4.07232710614386</v>
       </c>
       <c r="C348" t="n">
-        <v>1.742060651603071e-05</v>
+        <v>1.615606720995312e-05</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>4.073244313626724</v>
       </c>
       <c r="C349" t="n">
-        <v>1.820059320896311e-05</v>
+        <v>1.692310716462705e-05</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>4.074161521109589</v>
       </c>
       <c r="C350" t="n">
-        <v>1.911270312371281e-05</v>
+        <v>1.782717810286644e-05</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>4.075078728592454</v>
       </c>
       <c r="C351" t="n">
-        <v>2.016952612288096e-05</v>
+        <v>1.888156845134218e-05</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>4.075995936075319</v>
       </c>
       <c r="C352" t="n">
-        <v>2.138365206906868e-05</v>
+        <v>2.00995666367252e-05</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>4.076913143558183</v>
       </c>
       <c r="C353" t="n">
-        <v>2.276767082487568e-05</v>
+        <v>2.149446108568498e-05</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>4.077830351041049</v>
       </c>
       <c r="C354" t="n">
-        <v>2.433417225290739e-05</v>
+        <v>2.307954022489676e-05</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>4.078747558523913</v>
       </c>
       <c r="C355" t="n">
-        <v>2.609574621575886e-05</v>
+        <v>2.48680924810253e-05</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>4.079664766006778</v>
       </c>
       <c r="C356" t="n">
-        <v>2.806498257603603e-05</v>
+        <v>2.68734062807464e-05</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>4.080581973489643</v>
       </c>
       <c r="C357" t="n">
-        <v>3.025447119633845e-05</v>
+        <v>2.910877005072936e-05</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>4.081499180972508</v>
       </c>
       <c r="C358" t="n">
-        <v>3.267680193926725e-05</v>
+        <v>3.158747221764509e-05</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>4.082416388455373</v>
       </c>
       <c r="C359" t="n">
-        <v>3.534456466742358e-05</v>
+        <v>3.432280120816451e-05</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>4.083333595938238</v>
       </c>
       <c r="C360" t="n">
-        <v>3.827034924340854e-05</v>
+        <v>3.732804544895854e-05</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>4.084250803421103</v>
       </c>
       <c r="C361" t="n">
-        <v>4.14667455298233e-05</v>
+        <v>4.061649336669809e-05</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>4.085168010903968</v>
       </c>
       <c r="C362" t="n">
-        <v>4.494624778644825e-05</v>
+        <v>4.420133301243095e-05</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>4.086085218386833</v>
       </c>
       <c r="C363" t="n">
-        <v>4.869638019236986e-05</v>
+        <v>4.806953576922021e-05</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>4.087002425869698</v>
       </c>
       <c r="C364" t="n">
-        <v>5.264644713418457e-05</v>
+        <v>5.214694670706031e-05</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>4.087919633352563</v>
       </c>
       <c r="C365" t="n">
-        <v>5.671747148539599e-05</v>
+        <v>5.635071594290059e-05</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>4.088836840835428</v>
       </c>
       <c r="C366" t="n">
-        <v>6.083047611950786e-05</v>
+        <v>6.059799359369054e-05</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>4.089754048318293</v>
       </c>
       <c r="C367" t="n">
-        <v>6.490648391002381e-05</v>
+        <v>6.480592977637955e-05</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>4.090671255801158</v>
       </c>
       <c r="C368" t="n">
-        <v>6.886651773044748e-05</v>
+        <v>6.889167460791699e-05</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>4.091588463284022</v>
       </c>
       <c r="C369" t="n">
-        <v>7.263160045428256e-05</v>
+        <v>7.277237820525231e-05</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>4.092505670766887</v>
       </c>
       <c r="C370" t="n">
-        <v>7.612275495503273e-05</v>
+        <v>7.63651906853349e-05</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>4.093422878249752</v>
       </c>
       <c r="C371" t="n">
-        <v>7.926100410620162e-05</v>
+        <v>7.958726216511418e-05</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>4.094340085732617</v>
       </c>
       <c r="C372" t="n">
-        <v>8.196737078129291e-05</v>
+        <v>8.235574276153955e-05</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>4.095257293215482</v>
       </c>
       <c r="C373" t="n">
-        <v>8.416287785381026e-05</v>
+        <v>8.458778259156043e-05</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>4.096174500698347</v>
       </c>
       <c r="C374" t="n">
-        <v>8.576854819725729e-05</v>
+        <v>8.620053177212619e-05</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>4.097091708181212</v>
       </c>
       <c r="C375" t="n">
-        <v>8.670540468513775e-05</v>
+        <v>8.71111404201863e-05</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>4.098008915664077</v>
       </c>
       <c r="C376" t="n">
-        <v>8.689591009794414e-05</v>
+        <v>8.723828745081187e-05</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>4.098926123146942</v>
       </c>
       <c r="C377" t="n">
-        <v>8.633631022048051e-05</v>
+        <v>8.657898969900753e-05</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>4.099843330629807</v>
       </c>
       <c r="C378" t="n">
-        <v>8.513049836059821e-05</v>
+        <v>8.52445570286428e-05</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>4.100760538112672</v>
       </c>
       <c r="C379" t="n">
-        <v>8.339088504179028e-05</v>
+        <v>8.335534232051532e-05</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>4.101677745595537</v>
       </c>
       <c r="C380" t="n">
-        <v>8.122988078754968e-05</v>
+        <v>8.103169845542271e-05</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>4.102594953078402</v>
       </c>
       <c r="C381" t="n">
-        <v>7.875989612136949e-05</v>
+        <v>7.839397831416261e-05</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>4.103512160561267</v>
       </c>
       <c r="C382" t="n">
-        <v>7.609334156674272e-05</v>
+        <v>7.556253477753265e-05</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>4.104429368044132</v>
       </c>
       <c r="C383" t="n">
-        <v>7.334262764716238e-05</v>
+        <v>7.265772072633044e-05</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>4.105346575526997</v>
       </c>
       <c r="C384" t="n">
-        <v>7.062016488612151e-05</v>
+        <v>6.979988904135368e-05</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>4.106263783009862</v>
       </c>
       <c r="C385" t="n">
-        <v>6.803836380711314e-05</v>
+        <v>6.710939260339996e-05</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>4.107180990492727</v>
       </c>
       <c r="C386" t="n">
-        <v>6.569728689649218e-05</v>
+        <v>6.469320205780079e-05</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>4.108098197975592</v>
       </c>
       <c r="C387" t="n">
-        <v>6.3612923122259e-05</v>
+        <v>6.256717303245594e-05</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>4.109015405458456</v>
       </c>
       <c r="C388" t="n">
-        <v>6.176621853636662e-05</v>
+        <v>6.070918325248431e-05</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>4.109932612941321</v>
       </c>
       <c r="C389" t="n">
-        <v>6.013800317902785e-05</v>
+        <v>5.909698471480957e-05</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>4.110849820424186</v>
       </c>
       <c r="C390" t="n">
-        <v>5.87091070904555e-05</v>
+        <v>5.770832941635536e-05</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>4.111767027907051</v>
       </c>
       <c r="C391" t="n">
-        <v>5.746036031086241e-05</v>
+        <v>5.652096935404537e-05</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>4.112684235389915</v>
       </c>
       <c r="C392" t="n">
-        <v>5.637259288046238e-05</v>
+        <v>5.551265652480415e-05</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>4.11360144287278</v>
       </c>
       <c r="C393" t="n">
-        <v>5.542663483946614e-05</v>
+        <v>5.466114292555347e-05</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>4.114518650355645</v>
       </c>
       <c r="C394" t="n">
-        <v>5.46033162280876e-05</v>
+        <v>5.3944180553218e-05</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>4.11543585783851</v>
       </c>
       <c r="C395" t="n">
-        <v>5.388346708653967e-05</v>
+        <v>5.333952140472147e-05</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>4.116353065321375</v>
       </c>
       <c r="C396" t="n">
-        <v>5.324791745503511e-05</v>
+        <v>5.282491747698751e-05</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>4.11727027280424</v>
       </c>
       <c r="C397" t="n">
-        <v>5.267749737378677e-05</v>
+        <v>5.237812076693983e-05</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>4.118187480287105</v>
       </c>
       <c r="C398" t="n">
-        <v>5.215303688300744e-05</v>
+        <v>5.197688327150203e-05</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>4.11910468776997</v>
       </c>
       <c r="C399" t="n">
-        <v>5.165536602290999e-05</v>
+        <v>5.159895698759786e-05</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>4.120021895252835</v>
       </c>
       <c r="C400" t="n">
-        <v>5.116531483370722e-05</v>
+        <v>5.122209391215094e-05</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>4.1209391027357</v>
       </c>
       <c r="C401" t="n">
-        <v>5.066371335561194e-05</v>
+        <v>5.082404604208495e-05</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>4.121856310218565</v>
       </c>
       <c r="C402" t="n">
-        <v>5.0131391628837e-05</v>
+        <v>5.038256537432356e-05</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>4.12277351770143</v>
       </c>
       <c r="C403" t="n">
-        <v>4.95491796935952e-05</v>
+        <v>4.987540390579044e-05</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>4.123690725184295</v>
       </c>
       <c r="C404" t="n">
-        <v>4.889832699872358e-05</v>
+        <v>4.928078041556162e-05</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>4.12460793266716</v>
       </c>
       <c r="C405" t="n">
-        <v>4.817468039760559e-05</v>
+        <v>4.85931599101868e-05</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>4.125525140150025</v>
       </c>
       <c r="C406" t="n">
-        <v>4.73921168811609e-05</v>
+        <v>4.782707409470733e-05</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>4.12644234763289</v>
       </c>
       <c r="C407" t="n">
-        <v>4.656562900972808e-05</v>
+        <v>4.699829625067118e-05</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>4.127359555115754</v>
       </c>
       <c r="C408" t="n">
-        <v>4.571020934364569e-05</v>
+        <v>4.612259965962628e-05</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>4.128276762598619</v>
       </c>
       <c r="C409" t="n">
-        <v>4.484085044325232e-05</v>
+        <v>4.52157576031206e-05</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>4.129193970081484</v>
       </c>
       <c r="C410" t="n">
-        <v>4.397254486888648e-05</v>
+        <v>4.429354336270207e-05</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>4.130111177564349</v>
       </c>
       <c r="C411" t="n">
-        <v>4.312028518088678e-05</v>
+        <v>4.337173021991868e-05</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>4.131028385047214</v>
       </c>
       <c r="C412" t="n">
-        <v>4.229906393959178e-05</v>
+        <v>4.246609145631835e-05</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>4.131945592530079</v>
       </c>
       <c r="C413" t="n">
-        <v>4.152387370534003e-05</v>
+        <v>4.159240035344905e-05</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>4.132862800012944</v>
       </c>
       <c r="C414" t="n">
-        <v>4.080970703847009e-05</v>
+        <v>4.076643019285871e-05</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>4.133780007495809</v>
       </c>
       <c r="C415" t="n">
-        <v>4.017155649932056e-05</v>
+        <v>4.000395425609533e-05</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>4.134697214978674</v>
       </c>
       <c r="C416" t="n">
-        <v>3.962140688132669e-05</v>
+        <v>3.931815215921473e-05</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>4.135614422461539</v>
       </c>
       <c r="C417" t="n">
-        <v>3.915624569160762e-05</v>
+        <v>3.870927101876602e-05</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>4.136531629944404</v>
       </c>
       <c r="C418" t="n">
-        <v>3.876839534210751e-05</v>
+        <v>3.81735351341181e-05</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>4.137448837427269</v>
       </c>
       <c r="C419" t="n">
-        <v>3.845017676074977e-05</v>
+        <v>3.770716752493514e-05</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>4.138366044910134</v>
       </c>
       <c r="C420" t="n">
-        <v>3.819391087545777e-05</v>
+        <v>3.73063912108813e-05</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.139283252392999</v>
       </c>
       <c r="C421" t="n">
-        <v>3.799191861415492e-05</v>
+        <v>3.696742921162077e-05</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.140200459875864</v>
       </c>
       <c r="C422" t="n">
-        <v>3.783652090476458e-05</v>
+        <v>3.668650454681771e-05</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.141117667358729</v>
       </c>
       <c r="C423" t="n">
-        <v>3.77202206019596e-05</v>
+        <v>3.645989389782619e-05</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.142034874841594</v>
       </c>
       <c r="C424" t="n">
-        <v>3.763893084471104e-05</v>
+        <v>3.628487985425209e-05</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.142952082324459</v>
       </c>
       <c r="C425" t="n">
-        <v>3.759159351546654e-05</v>
+        <v>3.615963837346443e-05</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.143869289807323</v>
       </c>
       <c r="C426" t="n">
-        <v>3.757725577835741e-05</v>
+        <v>3.608237646705099e-05</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.144786497290188</v>
       </c>
       <c r="C427" t="n">
-        <v>3.759496479751496e-05</v>
+        <v>3.605130114659954e-05</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.145703704773053</v>
       </c>
       <c r="C428" t="n">
-        <v>3.764376773707054e-05</v>
+        <v>3.606461942369787e-05</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.146620912255917</v>
       </c>
       <c r="C429" t="n">
-        <v>3.772271176115535e-05</v>
+        <v>3.612053830993364e-05</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.147538119738782</v>
       </c>
       <c r="C430" t="n">
-        <v>3.783084403390087e-05</v>
+        <v>3.621726481689473e-05</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.148455327221647</v>
       </c>
       <c r="C431" t="n">
-        <v>3.796721171943837e-05</v>
+        <v>3.635300595616888e-05</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.149372534704512</v>
       </c>
       <c r="C432" t="n">
-        <v>3.813086198189914e-05</v>
+        <v>3.652596873934385e-05</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.150289742187377</v>
       </c>
       <c r="C433" t="n">
-        <v>3.832084198541456e-05</v>
+        <v>3.673436017800741e-05</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.151206949670242</v>
       </c>
       <c r="C434" t="n">
-        <v>3.853619889411588e-05</v>
+        <v>3.697638728374731e-05</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.152124157153107</v>
       </c>
       <c r="C435" t="n">
-        <v>3.877597987213445e-05</v>
+        <v>3.725025706815134e-05</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.153041364635972</v>
       </c>
       <c r="C436" t="n">
-        <v>3.903923208360159e-05</v>
+        <v>3.755417654280724e-05</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.153958572118837</v>
       </c>
       <c r="C437" t="n">
-        <v>3.932500269264863e-05</v>
+        <v>3.788635271930279e-05</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.154875779601702</v>
       </c>
       <c r="C438" t="n">
-        <v>3.963233886340687e-05</v>
+        <v>3.824499260922575e-05</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.155792987084567</v>
       </c>
       <c r="C439" t="n">
-        <v>3.996028776000764e-05</v>
+        <v>3.862830322416388e-05</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.156710194567432</v>
       </c>
       <c r="C440" t="n">
-        <v>4.030789654658226e-05</v>
+        <v>3.903449157570497e-05</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.157627402050297</v>
       </c>
       <c r="C441" t="n">
-        <v>4.067421238726204e-05</v>
+        <v>3.946176467543675e-05</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.158544609533162</v>
       </c>
       <c r="C442" t="n">
-        <v>4.105828244617832e-05</v>
+        <v>3.990832953494702e-05</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.159461817016027</v>
       </c>
       <c r="C443" t="n">
-        <v>4.145915388746239e-05</v>
+        <v>4.03723931658235e-05</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.160379024498892</v>
       </c>
       <c r="C444" t="n">
-        <v>4.187587387524561e-05</v>
+        <v>4.0852162579654e-05</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.161296231981757</v>
       </c>
       <c r="C445" t="n">
-        <v>4.230748957365926e-05</v>
+        <v>4.134584478802627e-05</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.162213439464622</v>
       </c>
       <c r="C446" t="n">
-        <v>4.275304814683467e-05</v>
+        <v>4.185164680252806e-05</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.163130646947486</v>
       </c>
       <c r="C447" t="n">
-        <v>4.321159675890317e-05</v>
+        <v>4.236777563474715e-05</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.164047854430351</v>
       </c>
       <c r="C448" t="n">
-        <v>4.368218257399608e-05</v>
+        <v>4.289243829627132e-05</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.164965061913216</v>
       </c>
       <c r="C449" t="n">
-        <v>4.416385275624471e-05</v>
+        <v>4.34238417986883e-05</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.165882269396081</v>
       </c>
       <c r="C450" t="n">
-        <v>4.46556544697804e-05</v>
+        <v>4.396019315358589e-05</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.166799476878946</v>
       </c>
       <c r="C451" t="n">
-        <v>4.515679379323069e-05</v>
+        <v>4.449990464757179e-05</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.167716684361811</v>
       </c>
       <c r="C452" t="n">
-        <v>4.566877562406884e-05</v>
+        <v>4.504435802627459e-05</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.168633891844676</v>
       </c>
       <c r="C453" t="n">
-        <v>4.619483493509419e-05</v>
+        <v>4.559716982985379e-05</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.169551099327541</v>
       </c>
       <c r="C454" t="n">
-        <v>4.67382489764294e-05</v>
+        <v>4.61620112094615e-05</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.170468306810406</v>
       </c>
       <c r="C455" t="n">
-        <v>4.73022949981971e-05</v>
+        <v>4.674255331624985e-05</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.171385514293271</v>
       </c>
       <c r="C456" t="n">
-        <v>4.789025025051988e-05</v>
+        <v>4.734246730137091e-05</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.172302721776136</v>
       </c>
       <c r="C457" t="n">
-        <v>4.850539198352042e-05</v>
+        <v>4.79654243159768e-05</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.173219929259001</v>
       </c>
       <c r="C458" t="n">
-        <v>4.915099744732131e-05</v>
+        <v>4.861509551121959e-05</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.174137136741866</v>
       </c>
       <c r="C459" t="n">
-        <v>4.98303438920452e-05</v>
+        <v>4.929515203825142e-05</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.175054344224731</v>
       </c>
       <c r="C460" t="n">
-        <v>5.05467085678147e-05</v>
+        <v>5.000926504822437e-05</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.175971551707596</v>
       </c>
       <c r="C461" t="n">
-        <v>5.130336872475245e-05</v>
+        <v>5.076110569229054e-05</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.176888759190461</v>
       </c>
       <c r="C462" t="n">
-        <v>5.210360161298106e-05</v>
+        <v>5.155434512160203e-05</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.177805966673326</v>
       </c>
       <c r="C463" t="n">
-        <v>5.295068448262319e-05</v>
+        <v>5.239265448731095e-05</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.178723174156191</v>
       </c>
       <c r="C464" t="n">
-        <v>5.384789458380142e-05</v>
+        <v>5.327970494056939e-05</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.179640381639055</v>
       </c>
       <c r="C465" t="n">
-        <v>5.479850916663843e-05</v>
+        <v>5.421916763252946e-05</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.18055758912192</v>
       </c>
       <c r="C466" t="n">
-        <v>5.580580548125581e-05</v>
+        <v>5.521471371434228e-05</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.181474796604784</v>
       </c>
       <c r="C467" t="n">
-        <v>5.687306077777815e-05</v>
+        <v>5.627001433716184e-05</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.182392004087649</v>
       </c>
       <c r="C468" t="n">
-        <v>5.800355230632714e-05</v>
+        <v>5.738874065213934e-05</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.183309211570514</v>
       </c>
       <c r="C469" t="n">
-        <v>5.920055731702538e-05</v>
+        <v>5.857456381042686e-05</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.184226419053379</v>
       </c>
       <c r="C470" t="n">
-        <v>6.046735305999551e-05</v>
+        <v>5.98311549631765e-05</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.185143626536244</v>
       </c>
       <c r="C471" t="n">
-        <v>6.180721678536013e-05</v>
+        <v>6.116218526154036e-05</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.186060834019109</v>
       </c>
       <c r="C472" t="n">
-        <v>6.322342574324196e-05</v>
+        <v>6.257132585667057e-05</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.186978041501974</v>
       </c>
       <c r="C473" t="n">
-        <v>6.471925718376353e-05</v>
+        <v>6.40622478997192e-05</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.187895248984839</v>
       </c>
       <c r="C474" t="n">
-        <v>6.62979883570475e-05</v>
+        <v>6.563862254183834e-05</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.188812456467704</v>
       </c>
       <c r="C475" t="n">
-        <v>6.79628965132165e-05</v>
+        <v>6.730412093418013e-05</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.189729663950569</v>
       </c>
       <c r="C476" t="n">
-        <v>6.971725890239317e-05</v>
+        <v>6.906241422789666e-05</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.190646871433434</v>
       </c>
       <c r="C477" t="n">
-        <v>7.156435277470011e-05</v>
+        <v>7.091717357413999e-05</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.191564078916299</v>
       </c>
       <c r="C478" t="n">
-        <v>7.350745538025998e-05</v>
+        <v>7.287207012406227e-05</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.192481286399164</v>
       </c>
       <c r="C479" t="n">
-        <v>7.554984396919537e-05</v>
+        <v>7.493077502881558e-05</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.193398493882029</v>
       </c>
       <c r="C480" t="n">
-        <v>7.769479579162894e-05</v>
+        <v>7.7096959439552e-05</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.194315701364894</v>
       </c>
       <c r="C481" t="n">
-        <v>7.994558809768331e-05</v>
+        <v>7.937429450742369e-05</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.195232908847759</v>
       </c>
       <c r="C482" t="n">
-        <v>8.23054981374811e-05</v>
+        <v>8.17664513835827e-05</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.196150116330624</v>
       </c>
       <c r="C483" t="n">
-        <v>8.477780316114496e-05</v>
+        <v>8.427710121918116e-05</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.197067323813489</v>
       </c>
       <c r="C484" t="n">
-        <v>8.736578041879747e-05</v>
+        <v>8.690991516537113e-05</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.197984531296354</v>
       </c>
       <c r="C485" t="n">
-        <v>9.00727071605613e-05</v>
+        <v>8.966856437330473e-05</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.198901738779218</v>
       </c>
       <c r="C486" t="n">
-        <v>9.290186063655906e-05</v>
+        <v>9.25567199941341e-05</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.199818946262083</v>
       </c>
       <c r="C487" t="n">
-        <v>9.585651809691336e-05</v>
+        <v>9.557805317901127e-05</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.200736153744948</v>
       </c>
       <c r="C488" t="n">
-        <v>9.893994276495968e-05</v>
+        <v>9.873621104302173e-05</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.201653361227813</v>
       </c>
       <c r="C489" t="n">
-        <v>0.0001021545248221373</v>
+        <v>0.0001020333446713405</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.202570568710678</v>
       </c>
       <c r="C490" t="n">
-        <v>0.0001055012828436951</v>
+        <v>0.0001054692547878422</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.203487776193543</v>
       </c>
       <c r="C491" t="n">
-        <v>0.0001089811152412455</v>
+        <v>0.000109043536206015</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.204404983676408</v>
       </c>
       <c r="C492" t="n">
-        <v>0.000112594920426401</v>
+        <v>0.0001127557837393471</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.205322191159273</v>
       </c>
       <c r="C493" t="n">
-        <v>0.0001163435968107741</v>
+        <v>0.0001166055922013267</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.206239398642138</v>
       </c>
       <c r="C494" t="n">
-        <v>0.0001202280428059772</v>
+        <v>0.0001205925564054419</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.207156606125003</v>
       </c>
       <c r="C495" t="n">
-        <v>0.0001242491568236228</v>
+        <v>0.0001247162711651809</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.208073813607868</v>
       </c>
       <c r="C496" t="n">
-        <v>0.0001284078372753234</v>
+        <v>0.0001289763312940321</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.208991021090733</v>
       </c>
       <c r="C497" t="n">
-        <v>0.0001327049825726915</v>
+        <v>0.0001333723316054835</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.209908228573598</v>
       </c>
       <c r="C498" t="n">
-        <v>0.0001371414911273396</v>
+        <v>0.0001379038669130233</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.210825436056463</v>
       </c>
       <c r="C499" t="n">
-        <v>0.00014171826135088</v>
+        <v>0.0001425705320301397</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.211742643539328</v>
       </c>
       <c r="C500" t="n">
-        <v>0.0001464361916549253</v>
+        <v>0.0001473719217703211</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.212659851022193</v>
       </c>
       <c r="C501" t="n">
-        <v>0.0001512961804510879</v>
+        <v>0.0001523076309470554</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.213577058505058</v>
       </c>
       <c r="C502" t="n">
-        <v>0.0001562991261509805</v>
+        <v>0.000157377254373831</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.214494265987922</v>
       </c>
       <c r="C503" t="n">
-        <v>0.0001614459271662102</v>
+        <v>0.0001625803868641309</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.215411473470787</v>
       </c>
       <c r="C504" t="n">
-        <v>0.0001667374819083997</v>
+        <v>0.0001679166232314533</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.216328680953652</v>
       </c>
       <c r="C505" t="n">
-        <v>0.0001721746887891564</v>
+        <v>0.0001733855582892816</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.217245888436516</v>
       </c>
       <c r="C506" t="n">
-        <v>0.0001777584462200928</v>
+        <v>0.0001789867868511038</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.218163095919381</v>
       </c>
       <c r="C507" t="n">
-        <v>0.0001834898329233651</v>
+        <v>0.0001847201355586825</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.219080303402246</v>
       </c>
       <c r="C508" t="n">
-        <v>0.0001893751147948513</v>
+        <v>0.0001905921002895719</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.219997510885111</v>
       </c>
       <c r="C509" t="n">
-        <v>0.0001954263983495611</v>
+        <v>0.0001966166863027837</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.220914718367976</v>
       </c>
       <c r="C510" t="n">
-        <v>0.0002016561016791244</v>
+        <v>0.0002028082994565879</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.221831925850841</v>
       </c>
       <c r="C511" t="n">
-        <v>0.0002080766428751703</v>
+        <v>0.0002091813456092539</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.222749133333706</v>
       </c>
       <c r="C512" t="n">
-        <v>0.0002147004400293287</v>
+        <v>0.0002157502306190516</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.223666340816571</v>
       </c>
       <c r="C513" t="n">
-        <v>0.000221539911233229</v>
+        <v>0.0002225293603442504</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.224583548299436</v>
       </c>
       <c r="C514" t="n">
-        <v>0.0002286074745785008</v>
+        <v>0.0002295331406431202</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.225500755782301</v>
       </c>
       <c r="C515" t="n">
-        <v>0.0002359155481567735</v>
+        <v>0.0002367759773739306</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.226417963265166</v>
       </c>
       <c r="C516" t="n">
-        <v>0.0002434765500596766</v>
+        <v>0.0002442722763949513</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.227335170748031</v>
       </c>
       <c r="C517" t="n">
-        <v>0.0002513028983788398</v>
+        <v>0.0002520364435644519</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.228252378230896</v>
       </c>
       <c r="C518" t="n">
-        <v>0.0002594070112058925</v>
+        <v>0.0002600828847407022</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.229169585713761</v>
       </c>
       <c r="C519" t="n">
-        <v>0.0002678013066324644</v>
+        <v>0.0002684260057819718</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.230086793196626</v>
       </c>
       <c r="C520" t="n">
-        <v>0.0002764982027501848</v>
+        <v>0.0002770802125465303</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.231004000679491</v>
       </c>
       <c r="C521" t="n">
-        <v>0.0002855101176506835</v>
+        <v>0.0002860599108926476</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.231921208162356</v>
       </c>
       <c r="C522" t="n">
-        <v>0.0002948486606293878</v>
+        <v>0.0002953786639924046</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.232838415645221</v>
       </c>
       <c r="C523" t="n">
-        <v>0.0003044960540816359</v>
+        <v>0.0003050194167548782</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.233755623128086</v>
       </c>
       <c r="C524" t="n">
-        <v>0.0003143974938539526</v>
+        <v>0.0003149265360626684</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.23467283061095</v>
       </c>
       <c r="C525" t="n">
-        <v>0.0003244958134438903</v>
+        <v>0.0003250419274628169</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.235590038093815</v>
       </c>
       <c r="C526" t="n">
-        <v>0.0003347338463490018</v>
+        <v>0.0003353074965023659</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.23650724557668</v>
       </c>
       <c r="C527" t="n">
-        <v>0.0003450544260668397</v>
+        <v>0.0003456651487283573</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.237424453059545</v>
       </c>
       <c r="C528" t="n">
-        <v>0.0003554003860949569</v>
+        <v>0.0003560567896878333</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.23834166054241</v>
       </c>
       <c r="C529" t="n">
-        <v>0.0003657145599309059</v>
+        <v>0.0003664243249278356</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.239258868025275</v>
       </c>
       <c r="C530" t="n">
-        <v>0.0003759397810722395</v>
+        <v>0.0003767096599954063</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.24017607550814</v>
       </c>
       <c r="C531" t="n">
-        <v>0.0003860188830165104</v>
+        <v>0.0003868547004375874</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.241093282991005</v>
       </c>
       <c r="C532" t="n">
-        <v>0.0003958954113234823</v>
+        <v>0.0003968020924131142</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.24201049047387</v>
       </c>
       <c r="C533" t="n">
-        <v>0.0004055384131351446</v>
+        <v>0.0004065210061255339</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.242927697956735</v>
       </c>
       <c r="C534" t="n">
-        <v>0.0004149488544141315</v>
+        <v>0.0004160138103549229</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.2438449054396</v>
       </c>
       <c r="C535" t="n">
-        <v>0.0004241297169365754</v>
+        <v>0.0004252849705170519</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.244762112922465</v>
       </c>
       <c r="C536" t="n">
-        <v>0.0004330839824786092</v>
+        <v>0.0004343389520276919</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.24567932040533</v>
       </c>
       <c r="C537" t="n">
-        <v>0.0004418146328163652</v>
+        <v>0.0004431802203026138</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.246596527888195</v>
       </c>
       <c r="C538" t="n">
-        <v>0.0004503246497259761</v>
+        <v>0.0004518132407575884</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.24751373537106</v>
       </c>
       <c r="C539" t="n">
-        <v>0.0004586170149835746</v>
+        <v>0.0004602424788083868</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.248430942853924</v>
       </c>
       <c r="C540" t="n">
-        <v>0.0004666947103652855</v>
+        <v>0.0004684723998707719</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.249348150336789</v>
       </c>
       <c r="C541" t="n">
-        <v>0.0004745607176472572</v>
+        <v>0.0004765074693605306</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.250265357819654</v>
       </c>
       <c r="C542" t="n">
-        <v>0.000482218018605614</v>
+        <v>0.0004843521526934255</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.251182565302519</v>
       </c>
       <c r="C543" t="n">
-        <v>0.0004896695950164889</v>
+        <v>0.0004920109152852279</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.252099772785384</v>
       </c>
       <c r="C544" t="n">
-        <v>0.0004969184286560142</v>
+        <v>0.0004994882225517085</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.253016980268248</v>
       </c>
       <c r="C545" t="n">
-        <v>0.0005039597968689031</v>
+        <v>0.0005067790574093099</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.253934187751113</v>
       </c>
       <c r="C546" t="n">
-        <v>0.0005107465266815087</v>
+        <v>0.000513826155555518</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.254851395233978</v>
       </c>
       <c r="C547" t="n">
-        <v>0.0005172169033008278</v>
+        <v>0.0005205543548333537</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.255768602716843</v>
       </c>
       <c r="C548" t="n">
-        <v>0.0005233091990668162</v>
+        <v>0.0005268884772492757</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.256685810199708</v>
       </c>
       <c r="C549" t="n">
-        <v>0.0005289616863194293</v>
+        <v>0.0005327533448097433</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.257603017682573</v>
       </c>
       <c r="C550" t="n">
-        <v>0.0005341126373986232</v>
+        <v>0.0005380737795212156</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.258520225165438</v>
       </c>
       <c r="C551" t="n">
-        <v>0.0005387003246443537</v>
+        <v>0.0005427746033901515</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.259437432648303</v>
       </c>
       <c r="C552" t="n">
-        <v>0.0005426630203965762</v>
+        <v>0.0005467806384230101</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.260354640131168</v>
       </c>
       <c r="C553" t="n">
-        <v>0.0005459389969952468</v>
+        <v>0.0005500167066262501</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.261271847614033</v>
       </c>
       <c r="C554" t="n">
-        <v>0.0005484665267803211</v>
+        <v>0.0005524076300063311</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.262189055096898</v>
       </c>
       <c r="C555" t="n">
-        <v>0.0005501838806384816</v>
+        <v>0.00055387823126443</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.263106262579763</v>
       </c>
       <c r="C556" t="n">
-        <v>0.0005510193672687186</v>
+        <v>0.000554358095397907</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.264023470062628</v>
       </c>
       <c r="C557" t="n">
-        <v>0.0005508675460068142</v>
+        <v>0.0005537929408547747</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.264940677545493</v>
       </c>
       <c r="C558" t="n">
-        <v>0.0005496158362573878</v>
+        <v>0.0005521318992356568</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.265857885028358</v>
       </c>
       <c r="C559" t="n">
-        <v>0.0005471516574250565</v>
+        <v>0.0005493241021411758</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.266775092511223</v>
       </c>
       <c r="C560" t="n">
-        <v>0.0005433624289144389</v>
+        <v>0.0005453186811719554</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.267692299994088</v>
       </c>
       <c r="C561" t="n">
-        <v>0.0005381430099245768</v>
+        <v>0.0005400702487356088</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.268609507476953</v>
       </c>
       <c r="C562" t="n">
-        <v>0.0005316079809766887</v>
+        <v>0.0005336952832927596</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.269526714959818</v>
       </c>
       <c r="C563" t="n">
-        <v>0.0005241226106499805</v>
+        <v>0.0005264949421785304</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.270443922442682</v>
       </c>
       <c r="C564" t="n">
-        <v>0.0005160658344360074</v>
+        <v>0.0005187804509778471</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.271361129925547</v>
       </c>
       <c r="C565" t="n">
-        <v>0.0005078165878263256</v>
+        <v>0.0005108630352756368</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.272278337408412</v>
       </c>
       <c r="C566" t="n">
-        <v>0.000499704381556761</v>
+        <v>0.0005030127239766368</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.273195544891277</v>
       </c>
       <c r="C567" t="n">
-        <v>0.0004917667121184914</v>
+        <v>0.0004952561453401059</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.274112752374142</v>
       </c>
       <c r="C568" t="n">
-        <v>0.0004839342143105808</v>
+        <v>0.0004875308559265274</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.275029959857007</v>
       </c>
       <c r="C569" t="n">
-        <v>0.0004761373632714879</v>
+        <v>0.0004797742792155669</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.275947167339872</v>
       </c>
       <c r="C570" t="n">
-        <v>0.0004683066341396708</v>
+        <v>0.0004719238386868891</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.276864374822737</v>
       </c>
       <c r="C571" t="n">
-        <v>0.0004603725020535874</v>
+        <v>0.0004639169578201595</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.277781582305602</v>
       </c>
       <c r="C572" t="n">
-        <v>0.0004522654421516962</v>
+        <v>0.000455691060095043</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.278698789788467</v>
       </c>
       <c r="C573" t="n">
-        <v>0.0004439159295724552</v>
+        <v>0.0004471835689912051</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.279615997271332</v>
       </c>
       <c r="C574" t="n">
-        <v>0.0004352544394543227</v>
+        <v>0.0004383319079883109</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.280533204754196</v>
       </c>
       <c r="C575" t="n">
-        <v>0.0004262114469357656</v>
+        <v>0.0004290735005660345</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.281450412237062</v>
       </c>
       <c r="C576" t="n">
-        <v>0.0004167174271552153</v>
+        <v>0.0004193457702040136</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.282367619719926</v>
       </c>
       <c r="C577" t="n">
-        <v>0.0004067165167933686</v>
+        <v>0.0004090997534269812</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.283284827202792</v>
       </c>
       <c r="C578" t="n">
-        <v>0.0003962707620768735</v>
+        <v>0.0003984039777379786</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.284202034685656</v>
       </c>
       <c r="C579" t="n">
-        <v>0.0003855025002946365</v>
+        <v>0.0003873870476747876</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.285119242168521</v>
       </c>
       <c r="C580" t="n">
-        <v>0.0003745345546156499</v>
+        <v>0.0003761780519304461</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.286036449651386</v>
       </c>
       <c r="C581" t="n">
-        <v>0.0003634897482089471</v>
+        <v>0.0003649060791980339</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.286953657134251</v>
       </c>
       <c r="C582" t="n">
-        <v>0.0003524909042435509</v>
+        <v>0.00035370021817062</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.287870864617116</v>
       </c>
       <c r="C583" t="n">
-        <v>0.0003416608458884844</v>
+        <v>0.0003426895575412739</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.28878807209998</v>
       </c>
       <c r="C584" t="n">
-        <v>0.0003311223963127708</v>
+        <v>0.0003320031860030648</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.289705279582845</v>
       </c>
       <c r="C585" t="n">
-        <v>0.000320998378685433</v>
+        <v>0.0003217701922490619</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.29062248706571</v>
       </c>
       <c r="C586" t="n">
-        <v>0.0003114096115991374</v>
+        <v>0.0003121175047510346</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.291539694548575</v>
       </c>
       <c r="C587" t="n">
-        <v>0.0003024030137980137</v>
+        <v>0.0003030924141927776</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.29245690203144</v>
       </c>
       <c r="C588" t="n">
-        <v>0.000293931772895509</v>
+        <v>0.0002946412023919017</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.293374109514305</v>
       </c>
       <c r="C589" t="n">
-        <v>0.0002859430352783831</v>
+        <v>0.0002867036408694525</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.29429131699717</v>
       </c>
       <c r="C590" t="n">
-        <v>0.0002783839473333954</v>
+        <v>0.000279219501146476</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.295208524480035</v>
       </c>
       <c r="C591" t="n">
-        <v>0.0002712016554473058</v>
+        <v>0.000272128554744018</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.2961257319629</v>
       </c>
       <c r="C592" t="n">
-        <v>0.0002643433060068738</v>
+        <v>0.0002653705731831243</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.297042939445765</v>
       </c>
       <c r="C593" t="n">
-        <v>0.0002577560453988589</v>
+        <v>0.0002588853279848409</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.29796014692863</v>
       </c>
       <c r="C594" t="n">
-        <v>0.0002513870200100206</v>
+        <v>0.0002526125906702133</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.298877354411495</v>
       </c>
       <c r="C595" t="n">
-        <v>0.0002451833762271187</v>
+        <v>0.0002464921327602876</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.29979456189436</v>
       </c>
       <c r="C596" t="n">
-        <v>0.0002390922604369127</v>
+        <v>0.0002404637257761095</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.300711769377225</v>
       </c>
       <c r="C597" t="n">
-        <v>0.0002330608190261622</v>
+        <v>0.0002344671412387249</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.30162897686009</v>
       </c>
       <c r="C598" t="n">
-        <v>0.0002270361983816267</v>
+        <v>0.0002284421506691795</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.302546184342955</v>
       </c>
       <c r="C599" t="n">
-        <v>0.000220965544890066</v>
+        <v>0.0002223285255885194</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.30346339182582</v>
       </c>
       <c r="C600" t="n">
-        <v>0.0002147960714955315</v>
+        <v>0.0002160661116761307</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.304380599308685</v>
       </c>
       <c r="C601" t="n">
-        <v>0.0002085373681036289</v>
+        <v>0.0002096642552147958</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.305297806791549</v>
       </c>
       <c r="C602" t="n">
-        <v>0.0002023771377902551</v>
+        <v>0.0002033307567322561</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.306215014274414</v>
       </c>
       <c r="C603" t="n">
-        <v>0.0001965346685273149</v>
+        <v>0.0001973086087450267</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.307132221757279</v>
       </c>
       <c r="C604" t="n">
-        <v>0.0001912292482867129</v>
+        <v>0.0001918408037696224</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.308049429240144</v>
       </c>
       <c r="C605" t="n">
-        <v>0.0001866801650403539</v>
+        <v>0.0001871703343225581</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.308966636723009</v>
       </c>
       <c r="C606" t="n">
-        <v>0.0001831067067601425</v>
+        <v>0.0001835401929203489</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.309883844205874</v>
       </c>
       <c r="C607" t="n">
-        <v>0.0001807281614179835</v>
+        <v>0.0001811933720795097</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.310801051688739</v>
       </c>
       <c r="C608" t="n">
-        <v>0.0001795885568405398</v>
+        <v>0.0001801796195378153</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.311718259171604</v>
       </c>
       <c r="C609" t="n">
-        <v>0.0001788377443474513</v>
+        <v>0.0001795627490032809</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.312635466654469</v>
       </c>
       <c r="C610" t="n">
-        <v>0.0001775537176256265</v>
+        <v>0.0001783262359619035</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.313552674137334</v>
       </c>
       <c r="C611" t="n">
-        <v>0.0001757816696080804</v>
+        <v>0.0001765149696690173</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.314469881620198</v>
       </c>
       <c r="C612" t="n">
-        <v>0.0001738417910335589</v>
+        <v>0.0001744756247971892</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.315387089103064</v>
       </c>
       <c r="C613" t="n">
-        <v>0.0001720542918251474</v>
+        <v>0.0001725548970720768</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.316304296585928</v>
       </c>
       <c r="C614" t="n">
-        <v>0.0001707393819059428</v>
+        <v>0.0001710994822193507</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.317221504068794</v>
       </c>
       <c r="C615" t="n">
-        <v>0.0001702172711990311</v>
+        <v>0.0001704560759646696</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.318138711551658</v>
       </c>
       <c r="C616" t="n">
-        <v>0.0001708081696275047</v>
+        <v>0.000170971374033699</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.319055919034523</v>
       </c>
       <c r="C617" t="n">
-        <v>0.0001728200650653449</v>
+        <v>0.0001729786915245292</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.319973126517388</v>
       </c>
       <c r="C618" t="n">
-        <v>0.0001762550543206125</v>
+        <v>0.0001764764557930674</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.320890334000253</v>
       </c>
       <c r="C619" t="n">
-        <v>0.0001807949058673332</v>
+        <v>0.0001811124006167094</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.321807541483118</v>
       </c>
       <c r="C620" t="n">
-        <v>0.0001861062767515464</v>
+        <v>0.0001865177158702557</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.322724748965983</v>
       </c>
       <c r="C621" t="n">
-        <v>0.0001918558240192919</v>
+        <v>0.0001923235914285066</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.323641956448848</v>
       </c>
       <c r="C622" t="n">
-        <v>0.0001977226966315174</v>
+        <v>0.0001981790098352773</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.324559163931712</v>
       </c>
       <c r="C623" t="n">
-        <v>0.0002034752861952012</v>
+        <v>0.0002038600650400007</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.325476371414577</v>
       </c>
       <c r="C624" t="n">
-        <v>0.0002089208087744045</v>
+        <v>0.0002091981500170898</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.326393578897442</v>
       </c>
       <c r="C625" t="n">
-        <v>0.0002138666397632446</v>
+        <v>0.0002140248846802997</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.327310786380307</v>
       </c>
       <c r="C626" t="n">
-        <v>0.0002181201545558392</v>
+        <v>0.0002181718889433862</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.328227993863172</v>
       </c>
       <c r="C627" t="n">
-        <v>0.0002214896697714514</v>
+        <v>0.0002214715707758825</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.329145201346037</v>
       </c>
       <c r="C628" t="n">
-        <v>0.0002238575294725344</v>
+        <v>0.0002238183188058021</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.330062408828902</v>
       </c>
       <c r="C629" t="n">
-        <v>0.0002252322453870959</v>
+        <v>0.0002252121575531068</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.330979616311767</v>
       </c>
       <c r="C630" t="n">
-        <v>0.0002256346370844268</v>
+        <v>0.0002256634164743377</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.331896823794632</v>
       </c>
       <c r="C631" t="n">
-        <v>0.0002250855241338184</v>
+        <v>0.0002251824250260362</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.332814031277497</v>
       </c>
       <c r="C632" t="n">
-        <v>0.0002236057261045615</v>
+        <v>0.0002237795126647433</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.333731238760362</v>
       </c>
       <c r="C633" t="n">
-        <v>0.0002212186407780789</v>
+        <v>0.0002214679697100268</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.334648446243227</v>
       </c>
       <c r="C634" t="n">
-        <v>0.0002179864760711862</v>
+        <v>0.0002183056567065017</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.335565653726092</v>
       </c>
       <c r="C635" t="n">
-        <v>0.0002140014353502237</v>
+        <v>0.0002143848814874154</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.336482861208957</v>
       </c>
       <c r="C636" t="n">
-        <v>0.0002093565004929426</v>
+        <v>0.0002097988459418705</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.337400068691822</v>
       </c>
       <c r="C637" t="n">
-        <v>0.0002041446533770944</v>
+        <v>0.0002046407519589695</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.338317276174687</v>
       </c>
       <c r="C638" t="n">
-        <v>0.0001984588758804304</v>
+        <v>0.000199003801427815</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.339234483657552</v>
       </c>
       <c r="C639" t="n">
-        <v>0.000192392149880702</v>
+        <v>0.0001929811962375096</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.340151691140417</v>
       </c>
       <c r="C640" t="n">
-        <v>0.0001860374572556605</v>
+        <v>0.0001866661382771559</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.341068898623281</v>
       </c>
       <c r="C641" t="n">
-        <v>0.0001794877798830572</v>
+        <v>0.0001801518294358563</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.341986106106146</v>
       </c>
       <c r="C642" t="n">
-        <v>0.00017283591984715</v>
+        <v>0.0001735312910980408</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.342903313589011</v>
       </c>
       <c r="C643" t="n">
-        <v>0.0001661539754689014</v>
+        <v>0.0001668767589904088</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.343820521071876</v>
       </c>
       <c r="C644" t="n">
-        <v>0.0001594743886502118</v>
+        <v>0.0001602206555582918</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.344737728554741</v>
       </c>
       <c r="C645" t="n">
-        <v>0.0001528251213148105</v>
+        <v>0.0001535909055481457</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.345654936037606</v>
       </c>
       <c r="C646" t="n">
-        <v>0.0001462341353864269</v>
+        <v>0.0001470154337064264</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.346572143520471</v>
       </c>
       <c r="C647" t="n">
-        <v>0.0001397293927887907</v>
+        <v>0.0001405221647795898</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.347489351003336</v>
       </c>
       <c r="C648" t="n">
-        <v>0.0001333388554456313</v>
+        <v>0.0001341390235140918</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.3484065584862</v>
       </c>
       <c r="C649" t="n">
-        <v>0.0001270904852806842</v>
+        <v>0.0001278939346563942</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.349323765969066</v>
       </c>
       <c r="C650" t="n">
-        <v>0.0001210122442176609</v>
+        <v>0.000121814822952935</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.35024097345193</v>
       </c>
       <c r="C651" t="n">
-        <v>0.0001151320941803145</v>
+        <v>0.0001159296131501938</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.351158180934796</v>
       </c>
       <c r="C652" t="n">
-        <v>0.0001094779970923518</v>
+        <v>0.0001102662299946035</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.35207538841766</v>
       </c>
       <c r="C653" t="n">
-        <v>0.0001040779148775241</v>
+        <v>0.000104852598232642</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.352992595900525</v>
       </c>
       <c r="C654" t="n">
-        <v>9.895980945954486e-05</v>
+        <v>9.971664261074911e-05</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.35390980338339</v>
       </c>
       <c r="C655" t="n">
-        <v>9.415164276214889e-05</v>
+        <v>9.488628787538611e-05</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.354827010866255</v>
       </c>
       <c r="C656" t="n">
-        <v>8.968135300651308e-05</v>
+        <v>9.038943549773326e-05</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.35574421834912</v>
       </c>
       <c r="C657" t="n">
-        <v>8.556560536452961e-05</v>
+        <v>8.624291711472381e-05</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.356661425831985</v>
       </c>
       <c r="C658" t="n">
-        <v>8.179178923401742e-05</v>
+        <v>8.243481633263286e-05</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.35757863331485</v>
       </c>
       <c r="C659" t="n">
-        <v>7.834260305809145e-05</v>
+        <v>7.894861036511517e-05</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.358495840797715</v>
       </c>
       <c r="C660" t="n">
-        <v>7.52007452798666e-05</v>
+        <v>7.576777642582551e-05</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.35941304828058</v>
       </c>
       <c r="C661" t="n">
-        <v>7.234891434245782e-05</v>
+        <v>7.287579172841862e-05</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.360330255763444</v>
       </c>
       <c r="C662" t="n">
-        <v>6.976980868898001e-05</v>
+        <v>7.025613348654923e-05</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.361247463246309</v>
       </c>
       <c r="C663" t="n">
-        <v>6.744612676254815e-05</v>
+        <v>6.789227891387216e-05</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.362164670729174</v>
       </c>
       <c r="C664" t="n">
-        <v>6.536056700627712e-05</v>
+        <v>6.576770522404214e-05</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.363081878212039</v>
       </c>
       <c r="C665" t="n">
-        <v>6.349582786328183e-05</v>
+        <v>6.38658896307139e-05</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.363999085694904</v>
       </c>
       <c r="C666" t="n">
-        <v>6.183460777667723e-05</v>
+        <v>6.217030934754221e-05</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.364916293177769</v>
       </c>
       <c r="C667" t="n">
-        <v>6.035960518957826e-05</v>
+        <v>6.066444158818183e-05</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.365833500660634</v>
       </c>
       <c r="C668" t="n">
-        <v>5.905351854509984e-05</v>
+        <v>5.933176356628753e-05</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.366750708143499</v>
       </c>
       <c r="C669" t="n">
-        <v>5.789904628635688e-05</v>
+        <v>5.815575249551404e-05</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.367667915626364</v>
       </c>
       <c r="C670" t="n">
-        <v>5.688011660540456e-05</v>
+        <v>5.71207879340185e-05</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.368585123109229</v>
       </c>
       <c r="C671" t="n">
-        <v>5.599018622608692e-05</v>
+        <v>5.621824112581677e-05</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.369502330592094</v>
       </c>
       <c r="C672" t="n">
-        <v>5.522716101664001e-05</v>
+        <v>5.544274793329601e-05</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.370419538074959</v>
       </c>
       <c r="C673" t="n">
-        <v>5.45889719521406e-05</v>
+        <v>5.478896264131884e-05</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.371336745557824</v>
       </c>
       <c r="C674" t="n">
-        <v>5.407355000766547e-05</v>
+        <v>5.425153953474788e-05</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.372253953040689</v>
       </c>
       <c r="C675" t="n">
-        <v>5.367882615829145e-05</v>
+        <v>5.38251328984458e-05</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.373171160523554</v>
       </c>
       <c r="C676" t="n">
-        <v>5.340273137909527e-05</v>
+        <v>5.350439701727522e-05</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.374088368006419</v>
       </c>
       <c r="C677" t="n">
-        <v>5.324319664515372e-05</v>
+        <v>5.328398617609875e-05</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.375005575489284</v>
       </c>
       <c r="C678" t="n">
-        <v>5.31981529315436e-05</v>
+        <v>5.315855465977903e-05</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.375922782972149</v>
       </c>
       <c r="C679" t="n">
-        <v>5.325020691274578e-05</v>
+        <v>5.311104628067996e-05</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.376839990455013</v>
       </c>
       <c r="C680" t="n">
-        <v>5.330134411780617e-05</v>
+        <v>5.306279605534972e-05</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.377757197937878</v>
       </c>
       <c r="C681" t="n">
-        <v>5.322713098154343e-05</v>
+        <v>5.291495014574872e-05</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.378674405420743</v>
       </c>
       <c r="C682" t="n">
-        <v>5.290311861447556e-05</v>
+        <v>5.256864300336485e-05</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.379591612903608</v>
       </c>
       <c r="C683" t="n">
-        <v>5.220487993505037e-05</v>
+        <v>5.192502927022635e-05</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.380508820386473</v>
       </c>
       <c r="C684" t="n">
-        <v>5.120414827034871e-05</v>
+        <v>5.106687572150514e-05</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.381426027869338</v>
       </c>
       <c r="C685" t="n">
-        <v>5.058095088759863e-05</v>
+        <v>5.063320608772846e-05</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.382343235352202</v>
       </c>
       <c r="C686" t="n">
-        <v>5.033776739864528e-05</v>
+        <v>5.054987968440463e-05</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.383260442835068</v>
       </c>
       <c r="C687" t="n">
-        <v>4.99251277683367e-05</v>
+        <v>5.017491828861723e-05</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.384177650317932</v>
       </c>
       <c r="C688" t="n">
-        <v>4.908000053274125e-05</v>
+        <v>4.921739543521802e-05</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.385094857800798</v>
       </c>
       <c r="C689" t="n">
-        <v>4.802518713244797e-05</v>
+        <v>4.797845606944512e-05</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.386012065283662</v>
       </c>
       <c r="C690" t="n">
-        <v>4.702842233721975e-05</v>
+        <v>4.681400416856081e-05</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.386929272766527</v>
       </c>
       <c r="C691" t="n">
-        <v>4.634231545835526e-05</v>
+        <v>4.605935660420531e-05</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.387846480249392</v>
       </c>
       <c r="C692" t="n">
-        <v>4.596990905040709e-05</v>
+        <v>4.571014750760016e-05</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.388763687732257</v>
       </c>
       <c r="C693" t="n">
-        <v>4.570949957645519e-05</v>
+        <v>4.548333321510337e-05</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.389680895215122</v>
       </c>
       <c r="C694" t="n">
-        <v>4.536650418956747e-05</v>
+        <v>4.510757876075125e-05</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.390598102697987</v>
       </c>
       <c r="C695" t="n">
-        <v>4.489265241543823e-05</v>
+        <v>4.453309613311428e-05</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.391515310180852</v>
       </c>
       <c r="C696" t="n">
-        <v>4.433093302016774e-05</v>
+        <v>4.384828253655925e-05</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.392432517663717</v>
       </c>
       <c r="C697" t="n">
-        <v>4.372569920689795e-05</v>
+        <v>4.314359243157576e-05</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.393349725146582</v>
       </c>
       <c r="C698" t="n">
-        <v>4.310679774370164e-05</v>
+        <v>4.248163703321745e-05</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.394266932629447</v>
       </c>
       <c r="C699" t="n">
-        <v>4.246443457324895e-05</v>
+        <v>4.184894206580838e-05</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.395184140112312</v>
       </c>
       <c r="C700" t="n">
-        <v>4.178210624595138e-05</v>
+        <v>4.121915543396766e-05</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.396101347595176</v>
       </c>
       <c r="C701" t="n">
-        <v>4.104330931222048e-05</v>
+        <v>4.056592504231436e-05</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.397018555078041</v>
       </c>
       <c r="C702" t="n">
-        <v>4.023154032246771e-05</v>
+        <v>3.986289879546751e-05</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.397935762560906</v>
       </c>
       <c r="C703" t="n">
-        <v>3.933029582710463e-05</v>
+        <v>3.908372459804622e-05</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.398852970043771</v>
       </c>
       <c r="C704" t="n">
-        <v>3.832307237654273e-05</v>
+        <v>3.820205035466952e-05</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.399770177526636</v>
       </c>
       <c r="C705" t="n">
-        <v>3.719336652119352e-05</v>
+        <v>3.71915239699565e-05</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.400687385009501</v>
       </c>
       <c r="C706" t="n">
-        <v>3.592467481146849e-05</v>
+        <v>3.602579334852622e-05</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.401604592492366</v>
       </c>
       <c r="C707" t="n">
-        <v>3.451904027983546e-05</v>
+        <v>3.469797608647368e-05</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.402521799975231</v>
       </c>
       <c r="C708" t="n">
-        <v>3.312221069235087e-05</v>
+        <v>3.335204786813495e-05</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.403439007458096</v>
       </c>
       <c r="C709" t="n">
-        <v>3.194703367092909e-05</v>
+        <v>3.220242433986532e-05</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.404356214940961</v>
       </c>
       <c r="C710" t="n">
-        <v>3.120673548678046e-05</v>
+        <v>3.146391864577454e-05</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.405273422423826</v>
       </c>
       <c r="C711" t="n">
-        <v>3.111454241111539e-05</v>
+        <v>3.13513439299724e-05</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.406190629906691</v>
       </c>
       <c r="C712" t="n">
-        <v>3.188364398485809e-05</v>
+        <v>3.207947705830381e-05</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.407107837389556</v>
       </c>
       <c r="C713" t="n">
-        <v>3.365307596627492e-05</v>
+        <v>3.378985368750683e-05</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.408025044872421</v>
       </c>
       <c r="C714" t="n">
-        <v>3.633219973889837e-05</v>
+        <v>3.639716158735498e-05</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.408942252355286</v>
       </c>
       <c r="C715" t="n">
-        <v>3.978604509989339e-05</v>
+        <v>3.977230250793673e-05</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.409859459838151</v>
       </c>
       <c r="C716" t="n">
-        <v>4.387964184642497e-05</v>
+        <v>4.37861781993405e-05</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.410776667321016</v>
       </c>
       <c r="C717" t="n">
-        <v>4.847801977565807e-05</v>
+        <v>4.830969041165474e-05</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.411693874803881</v>
       </c>
       <c r="C718" t="n">
-        <v>5.344620868475768e-05</v>
+        <v>5.321374089496793e-05</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.412611082286745</v>
       </c>
       <c r="C719" t="n">
-        <v>5.864923837088877e-05</v>
+        <v>5.836923139936847e-05</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.41352828976961</v>
       </c>
       <c r="C720" t="n">
-        <v>6.39521386312163e-05</v>
+        <v>6.364706367494486e-05</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.414445497252475</v>
       </c>
       <c r="C721" t="n">
-        <v>6.921781881515783e-05</v>
+        <v>6.89153421658687e-05</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.41536270473534</v>
       </c>
       <c r="C722" t="n">
-        <v>7.428542023302452e-05</v>
+        <v>7.401081639303932e-05</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.416279912218204</v>
       </c>
       <c r="C723" t="n">
-        <v>7.897915872832781e-05</v>
+        <v>7.875054612237955e-05</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.41719711970107</v>
       </c>
       <c r="C724" t="n">
-        <v>8.312301912272266e-05</v>
+        <v>8.29512863545484e-05</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.418114327183934</v>
       </c>
       <c r="C725" t="n">
-        <v>8.654098623783536e-05</v>
+        <v>8.642979209017579e-05</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.4190315346668</v>
       </c>
       <c r="C726" t="n">
-        <v>8.905806740909556e-05</v>
+        <v>8.900386489831657e-05</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.419948742149664</v>
       </c>
       <c r="C727" t="n">
-        <v>9.061418257986385e-05</v>
+        <v>9.06089222733264e-05</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.420865949632529</v>
       </c>
       <c r="C728" t="n">
-        <v>9.136784008035841e-05</v>
+        <v>9.14041123849251e-05</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.421783157115394</v>
       </c>
       <c r="C729" t="n">
-        <v>9.150203383473515e-05</v>
+        <v>9.157364501999851e-05</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.422700364598259</v>
       </c>
       <c r="C730" t="n">
-        <v>9.1199757767152e-05</v>
+        <v>9.130172996543456e-05</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.423617572081124</v>
       </c>
       <c r="C731" t="n">
-        <v>9.064304961139772e-05</v>
+        <v>9.077161676012874e-05</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.424534779563989</v>
       </c>
       <c r="C732" t="n">
-        <v>8.994318542194673e-05</v>
+        <v>9.009549298429524e-05</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.425451987046854</v>
       </c>
       <c r="C733" t="n">
-        <v>8.909327810669017e-05</v>
+        <v>8.92668816426108e-05</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.426369194529719</v>
       </c>
       <c r="C734" t="n">
-        <v>8.807521557388168e-05</v>
+        <v>8.826803310648277e-05</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.427286402012584</v>
       </c>
       <c r="C735" t="n">
-        <v>8.687088573177482e-05</v>
+        <v>8.708119774731849e-05</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.428203609495449</v>
       </c>
       <c r="C736" t="n">
-        <v>8.546217648862331e-05</v>
+        <v>8.568862593652533e-05</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.429120816978314</v>
       </c>
       <c r="C737" t="n">
-        <v>8.38309757526807e-05</v>
+        <v>8.407256804551063e-05</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.430038024461179</v>
       </c>
       <c r="C738" t="n">
-        <v>8.19629856452201e-05</v>
+        <v>8.221905416117497e-05</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.430955231944044</v>
       </c>
       <c r="C739" t="n">
-        <v>7.987547975635733e-05</v>
+        <v>8.01454002921333e-05</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.431872439426908</v>
       </c>
       <c r="C740" t="n">
-        <v>7.760132311474028e-05</v>
+        <v>7.788437286927142e-05</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.432789646909773</v>
       </c>
       <c r="C741" t="n">
-        <v>7.517349103641832e-05</v>
+        <v>7.546884761338569e-05</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.433706854392638</v>
       </c>
       <c r="C742" t="n">
-        <v>7.262495883744084e-05</v>
+        <v>7.293170024527261e-05</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.434624061875503</v>
       </c>
       <c r="C743" t="n">
-        <v>6.998870183385729e-05</v>
+        <v>7.030580648572861e-05</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.435541269358368</v>
       </c>
       <c r="C744" t="n">
-        <v>6.729769534171707e-05</v>
+        <v>6.762404205555012e-05</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.436458476841233</v>
       </c>
       <c r="C745" t="n">
-        <v>6.458491467706955e-05</v>
+        <v>6.491928267553361e-05</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.437375684324098</v>
       </c>
       <c r="C746" t="n">
-        <v>6.188333515596413e-05</v>
+        <v>6.222440406647543e-05</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.438292891806963</v>
       </c>
       <c r="C747" t="n">
-        <v>5.922593209445023e-05</v>
+        <v>5.957228194917212e-05</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.439210099289828</v>
       </c>
       <c r="C748" t="n">
-        <v>5.664568080857728e-05</v>
+        <v>5.69957920444201e-05</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.440127306772693</v>
       </c>
       <c r="C749" t="n">
-        <v>5.417555661439462e-05</v>
+        <v>5.452781007301576e-05</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.441044514255558</v>
       </c>
       <c r="C750" t="n">
-        <v>5.184703366682982e-05</v>
+        <v>5.21997186299579e-05</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.441961721738423</v>
       </c>
       <c r="C751" t="n">
-        <v>4.967070619226096e-05</v>
+        <v>5.002213214651094e-05</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.442878929221288</v>
       </c>
       <c r="C752" t="n">
-        <v>4.764186749139964e-05</v>
+        <v>4.799044603013967e-05</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.443796136704153</v>
       </c>
       <c r="C753" t="n">
-        <v>4.575545941791169e-05</v>
+        <v>4.609970612246756e-05</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.444713344187018</v>
       </c>
       <c r="C754" t="n">
-        <v>4.400642382546294e-05</v>
+        <v>4.4344958265118e-05</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.445630551669883</v>
       </c>
       <c r="C755" t="n">
-        <v>4.238970256771922e-05</v>
+        <v>4.272124829971446e-05</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.446547759152748</v>
       </c>
       <c r="C756" t="n">
-        <v>4.090023749834635e-05</v>
+        <v>4.122362206788038e-05</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.447464966635613</v>
       </c>
       <c r="C757" t="n">
-        <v>3.953297047101016e-05</v>
+        <v>3.984712541123921e-05</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.448382174118477</v>
       </c>
       <c r="C758" t="n">
-        <v>3.828284333937648e-05</v>
+        <v>3.858680417141439e-05</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.449299381601342</v>
       </c>
       <c r="C759" t="n">
-        <v>3.714479795711113e-05</v>
+        <v>3.743770419002934e-05</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.450216589084206</v>
       </c>
       <c r="C760" t="n">
-        <v>3.611377617788087e-05</v>
+        <v>3.639487130870848e-05</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.451133796567072</v>
       </c>
       <c r="C761" t="n">
-        <v>3.518471985534873e-05</v>
+        <v>3.545335136907239e-05</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.452051004049936</v>
       </c>
       <c r="C762" t="n">
-        <v>3.43525708431841e-05</v>
+        <v>3.460819021274812e-05</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.452968211532802</v>
       </c>
       <c r="C763" t="n">
-        <v>3.36122709950496e-05</v>
+        <v>3.385443368135588e-05</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.453885419015666</v>
       </c>
       <c r="C764" t="n">
-        <v>3.295876216461392e-05</v>
+        <v>3.318712761652202e-05</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.454802626498531</v>
       </c>
       <c r="C765" t="n">
-        <v>3.238698620554087e-05</v>
+        <v>3.260131785986792e-05</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.455719833981396</v>
       </c>
       <c r="C766" t="n">
-        <v>3.189188497149697e-05</v>
+        <v>3.209205025301771e-05</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.456637041464261</v>
       </c>
       <c r="C767" t="n">
-        <v>3.146840031614801e-05</v>
+        <v>3.165437063759483e-05</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.457554248947126</v>
       </c>
       <c r="C768" t="n">
-        <v>3.111147409315984e-05</v>
+        <v>3.128332485522273e-05</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.458471456429991</v>
       </c>
       <c r="C769" t="n">
-        <v>3.081604815619829e-05</v>
+        <v>3.097395874752484e-05</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.459388663912856</v>
       </c>
       <c r="C770" t="n">
-        <v>3.057706435892917e-05</v>
+        <v>3.072131815612462e-05</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.460305871395721</v>
       </c>
       <c r="C771" t="n">
-        <v>3.038946455501833e-05</v>
+        <v>3.05204489226455e-05</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.461223078878586</v>
       </c>
       <c r="C772" t="n">
-        <v>3.024819059813158e-05</v>
+        <v>3.036639688871092e-05</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.462140286361451</v>
       </c>
       <c r="C773" t="n">
-        <v>3.014818434193477e-05</v>
+        <v>3.025420789594434e-05</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.463057493844316</v>
       </c>
       <c r="C774" t="n">
-        <v>3.008438764009369e-05</v>
+        <v>3.017892778596919e-05</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.463974701327181</v>
       </c>
       <c r="C775" t="n">
-        <v>3.00517423462742e-05</v>
+        <v>3.013560240040891e-05</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.464891908810046</v>
       </c>
       <c r="C776" t="n">
-        <v>3.004519031414212e-05</v>
+        <v>3.011927758088694e-05</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.465809116292911</v>
       </c>
       <c r="C777" t="n">
-        <v>3.005967339736327e-05</v>
+        <v>3.012499916902673e-05</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.466726323775775</v>
       </c>
       <c r="C778" t="n">
-        <v>3.009013344960348e-05</v>
+        <v>3.014781300645174e-05</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.46764353125864</v>
       </c>
       <c r="C779" t="n">
-        <v>3.013151232452858e-05</v>
+        <v>3.018276493478537e-05</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.468560738741505</v>
       </c>
       <c r="C780" t="n">
-        <v>3.01787518758044e-05</v>
+        <v>3.022490079565109e-05</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.46947794622437</v>
       </c>
       <c r="C781" t="n">
-        <v>3.022679395709675e-05</v>
+        <v>3.026926643067235e-05</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.470395153707235</v>
       </c>
       <c r="C782" t="n">
-        <v>3.02705804220715e-05</v>
+        <v>3.031090768147259e-05</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.4713123611901</v>
       </c>
       <c r="C783" t="n">
-        <v>3.030505312439443e-05</v>
+        <v>3.034487038967522e-05</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.472229568672965</v>
       </c>
       <c r="C784" t="n">
-        <v>3.032515391773139e-05</v>
+        <v>3.036620039690373e-05</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.47314677615583</v>
       </c>
       <c r="C785" t="n">
-        <v>3.032582465574821e-05</v>
+        <v>3.036994354478153e-05</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.474063983638695</v>
       </c>
       <c r="C786" t="n">
-        <v>3.030200719211071e-05</v>
+        <v>3.035114567493208e-05</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.47498119112156</v>
       </c>
       <c r="C787" t="n">
-        <v>3.024867645368461e-05</v>
+        <v>3.030488469963489e-05</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.475898398604425</v>
       </c>
       <c r="C788" t="n">
-        <v>3.016501719402985e-05</v>
+        <v>3.023032074590769e-05</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.47681560608729</v>
       </c>
       <c r="C789" t="n">
-        <v>3.005850459086919e-05</v>
+        <v>3.013465305832859e-05</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.477732813570155</v>
       </c>
       <c r="C790" t="n">
-        <v>2.993758248908908e-05</v>
+        <v>3.002602018555146e-05</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.47865002105302</v>
       </c>
       <c r="C791" t="n">
-        <v>2.981069473357598e-05</v>
+        <v>2.991256067623015e-05</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.479567228535885</v>
       </c>
       <c r="C792" t="n">
-        <v>2.968628516921636e-05</v>
+        <v>2.980241307901852e-05</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.48048443601875</v>
       </c>
       <c r="C793" t="n">
-        <v>2.957279764089668e-05</v>
+        <v>2.970371594257044e-05</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.481401643501615</v>
       </c>
       <c r="C794" t="n">
-        <v>2.947867599350339e-05</v>
+        <v>2.962460781553975e-05</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.48231885098448</v>
       </c>
       <c r="C795" t="n">
-        <v>2.941236407192294e-05</v>
+        <v>2.957322724658032e-05</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.483236058467345</v>
       </c>
       <c r="C796" t="n">
-        <v>2.93823057210418e-05</v>
+        <v>2.9557712784346e-05</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.484153265950209</v>
       </c>
       <c r="C797" t="n">
-        <v>2.939694478574639e-05</v>
+        <v>2.95862029774906e-05</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.485070473433074</v>
       </c>
       <c r="C798" t="n">
-        <v>2.946472511092328e-05</v>
+        <v>2.966683637466815e-05</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.485987680915938</v>
       </c>
       <c r="C799" t="n">
-        <v>2.959409054145866e-05</v>
+        <v>2.980775152453216e-05</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.486904888398804</v>
       </c>
       <c r="C800" t="n">
-        <v>2.979348492223949e-05</v>
+        <v>3.001708697573707e-05</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.487822095881668</v>
       </c>
       <c r="C801" t="n">
-        <v>3.007135209815146e-05</v>
+        <v>3.030298127693589e-05</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.488739303364533</v>
       </c>
       <c r="C802" t="n">
-        <v>3.043613591408171e-05</v>
+        <v>3.067357297678321e-05</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.489656510847398</v>
       </c>
       <c r="C803" t="n">
-        <v>3.089628021491646e-05</v>
+        <v>3.113700062393265e-05</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.490573718330263</v>
       </c>
       <c r="C804" t="n">
-        <v>3.146022884554219e-05</v>
+        <v>3.170140276703807e-05</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.491490925813128</v>
       </c>
       <c r="C805" t="n">
-        <v>3.213642565084533e-05</v>
+        <v>3.237491795475332e-05</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.492408133295993</v>
       </c>
       <c r="C806" t="n">
-        <v>3.293331447571236e-05</v>
+        <v>3.316568473573227e-05</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.493325340778858</v>
       </c>
       <c r="C807" t="n">
-        <v>3.385933916502974e-05</v>
+        <v>3.408184165862877e-05</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.494242548261723</v>
       </c>
       <c r="C808" t="n">
-        <v>3.492294356368391e-05</v>
+        <v>3.513152727209668e-05</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.495159755744588</v>
       </c>
       <c r="C809" t="n">
-        <v>3.613257151656134e-05</v>
+        <v>3.632288012478986e-05</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.496076963227453</v>
       </c>
       <c r="C810" t="n">
-        <v>3.74966668685485e-05</v>
+        <v>3.766403876536216e-05</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.496994170710318</v>
       </c>
       <c r="C811" t="n">
-        <v>3.902367346453183e-05</v>
+        <v>3.916314174246746e-05</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.497911378193183</v>
       </c>
       <c r="C812" t="n">
-        <v>4.07220351493978e-05</v>
+        <v>4.08283276047596e-05</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.498828585676048</v>
       </c>
       <c r="C813" t="n">
-        <v>4.260019576803285e-05</v>
+        <v>4.266773490089244e-05</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.499745793158913</v>
       </c>
       <c r="C814" t="n">
-        <v>4.466659916532346e-05</v>
+        <v>4.468950217951985e-05</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.500663000641778</v>
       </c>
       <c r="C815" t="n">
-        <v>4.692832597740647e-05</v>
+        <v>4.690062554503229e-05</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.501580208124643</v>
       </c>
       <c r="C816" t="n">
-        <v>4.937745023458947e-05</v>
+        <v>4.929552473686687e-05</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.502497415607507</v>
       </c>
       <c r="C817" t="n">
-        <v>5.199674908546454e-05</v>
+        <v>5.186082819383538e-05</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.503414623090372</v>
       </c>
       <c r="C818" t="n">
-        <v>5.476886113622346e-05</v>
+        <v>5.458304824856222e-05</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.504331830573237</v>
       </c>
       <c r="C819" t="n">
-        <v>5.767642499305806e-05</v>
+        <v>5.744869723367186e-05</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.505249038056102</v>
       </c>
       <c r="C820" t="n">
-        <v>6.070207926216011e-05</v>
+        <v>6.044428748178871e-05</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.506166245538967</v>
       </c>
       <c r="C821" t="n">
-        <v>6.382846254972137e-05</v>
+        <v>6.35563313255372e-05</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.507083453021832</v>
       </c>
       <c r="C822" t="n">
-        <v>6.703821346193368e-05</v>
+        <v>6.677134109754177e-05</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.508000660504697</v>
       </c>
       <c r="C823" t="n">
-        <v>7.03139706049888e-05</v>
+        <v>7.007582913042683e-05</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.508917867987562</v>
       </c>
       <c r="C824" t="n">
-        <v>7.363837258507849e-05</v>
+        <v>7.345630775681681e-05</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.509835075470427</v>
       </c>
       <c r="C825" t="n">
-        <v>7.699235834305214e-05</v>
+        <v>7.68967568543104e-05</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.510752282953292</v>
       </c>
       <c r="C826" t="n">
-        <v>8.034336860287025e-05</v>
+        <v>8.036104432531609e-05</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.511669490436157</v>
       </c>
       <c r="C827" t="n">
-        <v>8.365240716347919e-05</v>
+        <v>8.380344722944797e-05</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.512586697919022</v>
       </c>
       <c r="C828" t="n">
-        <v>8.688043818148501e-05</v>
+        <v>8.717818356031372e-05</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.513503905401887</v>
       </c>
       <c r="C829" t="n">
-        <v>8.998842581349375e-05</v>
+        <v>9.043947131152103e-05</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.514421112884752</v>
       </c>
       <c r="C830" t="n">
-        <v>9.293733421611147e-05</v>
+        <v>9.354152847667757e-05</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.515338320367617</v>
       </c>
       <c r="C831" t="n">
-        <v>9.568812754594417e-05</v>
+        <v>9.643857304939098e-05</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.516255527850482</v>
       </c>
       <c r="C832" t="n">
-        <v>9.820176995959785e-05</v>
+        <v>9.908482302326899e-05</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.517172735333347</v>
       </c>
       <c r="C833" t="n">
-        <v>0.0001004392256136786</v>
+        <v>0.0001014344963919192</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.518089942816211</v>
       </c>
       <c r="C834" t="n">
-        <v>0.0001023614586647908</v>
+        <v>0.0001034418111489476</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.519007150299077</v>
       </c>
       <c r="C835" t="n">
-        <v>0.0001039294332695455</v>
+        <v>0.0001050609852879671</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.519924357781941</v>
       </c>
       <c r="C836" t="n">
-        <v>0.0001051041135845427</v>
+        <v>0.0001062462368025792</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.520841565264806</v>
       </c>
       <c r="C837" t="n">
-        <v>0.000105846463766393</v>
+        <v>0.0001069517836863961</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.52175877274767</v>
       </c>
       <c r="C838" t="n">
-        <v>0.0001061174479716995</v>
+        <v>0.0001071318439330227</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.522675980230535</v>
       </c>
       <c r="C839" t="n">
-        <v>0.0001058874362519399</v>
+        <v>0.0001067526609626048</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.5235931877134</v>
       </c>
       <c r="C840" t="n">
-        <v>0.0001051850407338968</v>
+        <v>0.0001058549406263083</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.524510395196265</v>
       </c>
       <c r="C841" t="n">
-        <v>0.0001040611384565522</v>
+        <v>0.0001045078544417455</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.52542760267913</v>
       </c>
       <c r="C842" t="n">
-        <v>0.0001025666511710423</v>
+        <v>0.0001027806310909698</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.526344810161995</v>
       </c>
       <c r="C843" t="n">
-        <v>0.0001007525006285034</v>
+        <v>0.0001007424992560347</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.52726201764486</v>
       </c>
       <c r="C844" t="n">
-        <v>9.866960858007144e-05</v>
+        <v>9.846268761899368e-05</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.528179225127725</v>
       </c>
       <c r="C845" t="n">
-        <v>9.63688967768827e-05</v>
+        <v>9.601042486190016e-05</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.52909643261059</v>
       </c>
       <c r="C846" t="n">
-        <v>9.39012869700733e-05</v>
+        <v>9.345493966680764e-05</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.530013640093455</v>
       </c>
       <c r="C847" t="n">
-        <v>9.131770091077935e-05</v>
+        <v>9.086546071576955e-05</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.53093084757632</v>
       </c>
       <c r="C848" t="n">
-        <v>8.866870577594281e-05</v>
+        <v>8.830976461131054e-05</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.531848055059185</v>
       </c>
       <c r="C849" t="n">
-        <v>8.599717743570843e-05</v>
+        <v>8.582412992442159e-05</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.53276526254205</v>
       </c>
       <c r="C850" t="n">
-        <v>8.333854967478141e-05</v>
+        <v>8.341435782504496e-05</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.533682470024915</v>
       </c>
       <c r="C851" t="n">
-        <v>8.072795156489866e-05</v>
+        <v>8.108500159912364e-05</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.53459967750778</v>
       </c>
       <c r="C852" t="n">
-        <v>7.820051217779704e-05</v>
+        <v>7.884061453260053e-05</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.535516884990645</v>
       </c>
       <c r="C853" t="n">
-        <v>7.579136058521343e-05</v>
+        <v>7.668574991141855e-05</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.53643409247351</v>
       </c>
       <c r="C854" t="n">
-        <v>7.353562585888476e-05</v>
+        <v>7.462496102152073e-05</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.537351299956375</v>
       </c>
       <c r="C855" t="n">
-        <v>7.146843707054786e-05</v>
+        <v>7.266280114884991e-05</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.538268507439239</v>
       </c>
       <c r="C856" t="n">
-        <v>6.962492329193967e-05</v>
+        <v>7.080382357934911e-05</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.539185714922104</v>
       </c>
       <c r="C857" t="n">
-        <v>6.804014797369208e-05</v>
+        <v>6.905257912169978e-05</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.540102922404969</v>
       </c>
       <c r="C858" t="n">
-        <v>6.672778185560208e-05</v>
+        <v>6.741281098864646e-05</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.541020129887834</v>
       </c>
       <c r="C859" t="n">
-        <v>6.564943023356135e-05</v>
+        <v>6.588629687106602e-05</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.541937337370699</v>
       </c>
       <c r="C860" t="n">
-        <v>6.47589286574051e-05</v>
+        <v>6.447452114425722e-05</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.542854544853564</v>
       </c>
       <c r="C861" t="n">
-        <v>6.40101126769686e-05</v>
+        <v>6.31789681835188e-05</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.543771752336429</v>
       </c>
       <c r="C862" t="n">
-        <v>6.335681784208704e-05</v>
+        <v>6.20011223641495e-05</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.544688959819294</v>
       </c>
       <c r="C863" t="n">
-        <v>6.275287970259565e-05</v>
+        <v>6.094246806144805e-05</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.545606167302159</v>
       </c>
       <c r="C864" t="n">
-        <v>6.215213380832968e-05</v>
+        <v>6.000448965071319e-05</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.546523374785024</v>
       </c>
       <c r="C865" t="n">
-        <v>6.151545030258955e-05</v>
+        <v>5.918880065908344e-05</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.547440582267889</v>
       </c>
       <c r="C866" t="n">
-        <v>6.085776155627657e-05</v>
+        <v>5.849800717086351e-05</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.548357789750754</v>
       </c>
       <c r="C867" t="n">
-        <v>6.021906608273285e-05</v>
+        <v>5.793517547298794e-05</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.549274997233619</v>
       </c>
       <c r="C868" t="n">
-        <v>5.963949967713694e-05</v>
+        <v>5.750337437282137e-05</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.550192204716484</v>
       </c>
       <c r="C869" t="n">
-        <v>5.915919813466742e-05</v>
+        <v>5.720567267772845e-05</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.551109412199349</v>
       </c>
       <c r="C870" t="n">
-        <v>5.881829725050292e-05</v>
+        <v>5.704513919507388e-05</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.552026619682213</v>
       </c>
       <c r="C871" t="n">
-        <v>5.865635746009099e-05</v>
+        <v>5.702494006005851e-05</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.552943827165079</v>
       </c>
       <c r="C872" t="n">
-        <v>5.869452019037645e-05</v>
+        <v>5.715135716685535e-05</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.553861034647943</v>
       </c>
       <c r="C873" t="n">
-        <v>5.893206214921875e-05</v>
+        <v>5.743437104491583e-05</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.554778242130809</v>
       </c>
       <c r="C874" t="n">
-        <v>5.936698918311372e-05</v>
+        <v>5.78841772025666e-05</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.555695449613673</v>
       </c>
       <c r="C875" t="n">
-        <v>5.999730713855462e-05</v>
+        <v>5.851097114813148e-05</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.556612657096538</v>
       </c>
       <c r="C876" t="n">
-        <v>6.08210218620379e-05</v>
+        <v>5.93249483899375e-05</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.557529864579402</v>
       </c>
       <c r="C877" t="n">
-        <v>6.183613920005793e-05</v>
+        <v>6.033630443630968e-05</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.558447072062267</v>
       </c>
       <c r="C878" t="n">
-        <v>6.304066499910967e-05</v>
+        <v>6.155523479557353e-05</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.559364279545132</v>
       </c>
       <c r="C879" t="n">
-        <v>6.443234230251326e-05</v>
+        <v>6.299129041852013e-05</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.560281487027997</v>
       </c>
       <c r="C880" t="n">
-        <v>6.600264910485199e-05</v>
+        <v>6.46386564432163e-05</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.561198694510862</v>
       </c>
       <c r="C881" t="n">
-        <v>6.773667330311657e-05</v>
+        <v>6.647584549710296e-05</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.562115901993727</v>
       </c>
       <c r="C882" t="n">
-        <v>6.961921497828935e-05</v>
+        <v>6.848066430299558e-05</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.563033109476592</v>
       </c>
       <c r="C883" t="n">
-        <v>7.163507421135279e-05</v>
+        <v>7.063091958370972e-05</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.563950316959457</v>
       </c>
       <c r="C884" t="n">
-        <v>7.376905108328931e-05</v>
+        <v>7.290441806206089e-05</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.564867524442322</v>
       </c>
       <c r="C885" t="n">
-        <v>7.600594567508131e-05</v>
+        <v>7.527896646086459e-05</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.565784731925187</v>
       </c>
       <c r="C886" t="n">
-        <v>7.833055806771121e-05</v>
+        <v>7.77323715029364e-05</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.566701939408052</v>
       </c>
       <c r="C887" t="n">
-        <v>8.072768834216142e-05</v>
+        <v>8.024243991109179e-05</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.567619146890917</v>
       </c>
       <c r="C888" t="n">
-        <v>8.318248968891585e-05</v>
+        <v>8.278820670658126e-05</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.568536354373782</v>
       </c>
       <c r="C889" t="n">
-        <v>8.568269975489836e-05</v>
+        <v>8.535769699386496e-05</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.569453561856647</v>
       </c>
       <c r="C890" t="n">
-        <v>8.821720474341962e-05</v>
+        <v>8.794293115367421e-05</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.570370769339512</v>
       </c>
       <c r="C891" t="n">
-        <v>9.077489606867982e-05</v>
+        <v>9.05359476929229e-05</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.571287976822377</v>
       </c>
       <c r="C892" t="n">
-        <v>9.334466514487891e-05</v>
+        <v>9.312878511852478e-05</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.572205184305242</v>
       </c>
       <c r="C893" t="n">
-        <v>9.5915403386217e-05</v>
+        <v>9.571348193739376e-05</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.573122391788107</v>
       </c>
       <c r="C894" t="n">
-        <v>9.847600220689421e-05</v>
+        <v>9.828207665644364e-05</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.574039599270971</v>
       </c>
       <c r="C895" t="n">
-        <v>0.0001010153530211105</v>
+        <v>0.0001008266077825882</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.574956806753836</v>
       </c>
       <c r="C896" t="n">
-        <v>0.0001035223472430661</v>
+        <v>0.0001033391138227413</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.575874014236701</v>
       </c>
       <c r="C897" t="n">
-        <v>0.0001059856542198</v>
+        <v>0.000105811399267955</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.576791221719566</v>
       </c>
       <c r="C898" t="n">
-        <v>0.0001083722629636731</v>
+        <v>0.0001082124217273771</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.577708429202431</v>
       </c>
       <c r="C899" t="n">
-        <v>0.0001106095934088453</v>
+        <v>0.0001104694406505032</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.578625636685296</v>
       </c>
       <c r="C900" t="n">
-        <v>0.0001126208544381278</v>
+        <v>0.000112505277852711</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.579542844168161</v>
       </c>
       <c r="C901" t="n">
-        <v>0.0001143292549343321</v>
+        <v>0.0001142427551493781</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.580460051651026</v>
       </c>
       <c r="C902" t="n">
-        <v>0.0001156580037802691</v>
+        <v>0.0001156046943558822</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.581377259133891</v>
       </c>
       <c r="C903" t="n">
-        <v>0.0001165303098587503</v>
+        <v>0.000116513917287601</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.582294466616756</v>
       </c>
       <c r="C904" t="n">
-        <v>0.0001168693820525869</v>
+        <v>0.0001168932457599121</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.583211674099621</v>
       </c>
       <c r="C905" t="n">
-        <v>0.0001165984292445901</v>
+        <v>0.0001166655015881932</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.584128881582486</v>
       </c>
       <c r="C906" t="n">
-        <v>0.0001156406968559256</v>
+        <v>0.0001157535428125838</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.585046089065351</v>
       </c>
       <c r="C907" t="n">
-        <v>0.0001139516988761035</v>
+        <v>0.0001141122190945564</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.585963296548215</v>
       </c>
       <c r="C908" t="n">
-        <v>0.0001115784156550611</v>
+        <v>0.0001117870614402368</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.586880504031081</v>
       </c>
       <c r="C909" t="n">
-        <v>0.000108583922121805</v>
+        <v>0.0001088395573020867</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.587797711513945</v>
       </c>
       <c r="C910" t="n">
-        <v>0.0001050312932053615</v>
+        <v>0.0001053311941325867</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.588714918996811</v>
       </c>
       <c r="C911" t="n">
-        <v>0.0001009836331096426</v>
+        <v>0.0001013234886032686</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.589632126479675</v>
       </c>
       <c r="C912" t="n">
-        <v>9.660558167155199e-05</v>
+        <v>9.697929936409365e-05</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.59054933396254</v>
       </c>
       <c r="C913" t="n">
-        <v>9.239064087205748e-05</v>
+        <v>9.278971998440969e-05</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.591466541445405</v>
       </c>
       <c r="C914" t="n">
-        <v>8.889877339716135e-05</v>
+        <v>8.931217798094403e-05</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.59238374892827</v>
       </c>
       <c r="C915" t="n">
-        <v>8.668994193286185e-05</v>
+        <v>8.710410087041994e-05</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.593300956411134</v>
       </c>
       <c r="C916" t="n">
-        <v>8.632410493684232e-05</v>
+        <v>8.672291199905969e-05</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.594218163893999</v>
       </c>
       <c r="C917" t="n">
-        <v>8.807826450121682e-05</v>
+        <v>8.844694722609616e-05</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.595135371376864</v>
       </c>
       <c r="C918" t="n">
-        <v>9.118011586600664e-05</v>
+        <v>9.151958279130902e-05</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.596052578859729</v>
       </c>
       <c r="C919" t="n">
-        <v>9.4614173495048e-05</v>
+        <v>9.494433918296266e-05</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.596969786342594</v>
       </c>
       <c r="C920" t="n">
-        <v>9.738436626404947e-05</v>
+        <v>9.774336407043445e-05</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.597886993825459</v>
       </c>
       <c r="C921" t="n">
-        <v>9.899892017143543e-05</v>
+        <v>9.942265361160139e-05</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.598804201308324</v>
       </c>
       <c r="C922" t="n">
-        <v>9.950470469802266e-05</v>
+        <v>0.0001000050061094574</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.599721408791189</v>
       </c>
       <c r="C923" t="n">
-        <v>9.897488235820017e-05</v>
+        <v>9.95384467500755e-05</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.600638616274054</v>
       </c>
       <c r="C924" t="n">
-        <v>9.748261566635701e-05</v>
+        <v>9.807100071952905e-05</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.601555823756919</v>
       </c>
       <c r="C925" t="n">
-        <v>9.510107792106134e-05</v>
+        <v>9.565070634491713e-05</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.602473031239784</v>
       </c>
       <c r="C926" t="n">
-        <v>9.19773679693815e-05</v>
+        <v>9.241568368644508e-05</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.603390238722649</v>
       </c>
       <c r="C927" t="n">
-        <v>8.850902565223231e-05</v>
+        <v>8.880922685069667e-05</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.604307446205514</v>
       </c>
       <c r="C928" t="n">
-        <v>8.514657348299861e-05</v>
+        <v>8.533919180490509e-05</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.605224653688379</v>
       </c>
       <c r="C929" t="n">
-        <v>8.23360131577175e-05</v>
+        <v>8.250826613108133e-05</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.606141861171244</v>
       </c>
       <c r="C930" t="n">
-        <v>8.02199771220128e-05</v>
+        <v>8.04723131469252e-05</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.607059068654109</v>
       </c>
       <c r="C931" t="n">
-        <v>7.845141290337742e-05</v>
+        <v>7.882736813468556e-05</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.607976276136974</v>
       </c>
       <c r="C932" t="n">
-        <v>7.66387847682298e-05</v>
+        <v>7.711861127420632e-05</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.608893483619839</v>
       </c>
       <c r="C933" t="n">
-        <v>7.439792011123976e-05</v>
+        <v>7.490077053582624e-05</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.609810691102703</v>
       </c>
       <c r="C934" t="n">
-        <v>7.152447795629816e-05</v>
+        <v>7.19617621030385e-05</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.610727898585568</v>
       </c>
       <c r="C935" t="n">
-        <v>6.799997117746349e-05</v>
+        <v>6.833049940446021e-05</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.611645106068433</v>
       </c>
       <c r="C936" t="n">
-        <v>6.38144814782148e-05</v>
+        <v>6.404700655957467e-05</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.612562313551298</v>
       </c>
       <c r="C937" t="n">
-        <v>5.899138924758034e-05</v>
+        <v>5.917342326352e-05</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.613479521034163</v>
       </c>
       <c r="C938" t="n">
-        <v>5.367570658468122e-05</v>
+        <v>5.38526718382027e-05</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.614396728517028</v>
       </c>
       <c r="C939" t="n">
-        <v>4.804020974456917e-05</v>
+        <v>4.824611438117951e-05</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.615313935999893</v>
       </c>
       <c r="C940" t="n">
-        <v>4.225767498229595e-05</v>
+        <v>4.251511299000729e-05</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.616231143482758</v>
       </c>
       <c r="C941" t="n">
-        <v>3.650087855291331e-05</v>
+        <v>3.682102976224279e-05</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.617148350965623</v>
       </c>
       <c r="C942" t="n">
-        <v>3.094259671147302e-05</v>
+        <v>3.132522679544283e-05</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.618065558448488</v>
       </c>
       <c r="C943" t="n">
-        <v>2.575560571302683e-05</v>
+        <v>2.618906618716425e-05</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.618982765931353</v>
       </c>
       <c r="C944" t="n">
-        <v>2.111268181262651e-05</v>
+        <v>2.157391003496383e-05</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.619899973414217</v>
       </c>
       <c r="C945" t="n">
-        <v>1.71866012653272e-05</v>
+        <v>1.764112043640181e-05</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.620817180897083</v>
       </c>
       <c r="C946" t="n">
-        <v>1.41477221039091e-05</v>
+        <v>1.454993401684976e-05</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.621734388379947</v>
       </c>
       <c r="C947" t="n">
-        <v>1.199773835960718e-05</v>
+        <v>1.231134187110117e-05</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.622651595862813</v>
       </c>
       <c r="C948" t="n">
-        <v>1.046237766909477e-05</v>
+        <v>1.069377720246096e-05</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.623568803345677</v>
       </c>
       <c r="C949" t="n">
-        <v>9.243737619314682e-06</v>
+        <v>9.444565706712206e-06</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.624486010828542</v>
       </c>
       <c r="C950" t="n">
-        <v>8.166235649855238e-06</v>
+        <v>8.396700685183469e-06</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.625403218311407</v>
       </c>
       <c r="C951" t="n">
-        <v>7.249077281733401e-06</v>
+        <v>7.519596700059985e-06</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.626320425794272</v>
       </c>
       <c r="C952" t="n">
-        <v>6.523933201260848e-06</v>
+        <v>6.795666032939126e-06</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.627237633277137</v>
       </c>
       <c r="C953" t="n">
-        <v>5.986224940969904e-06</v>
+        <v>6.213423104051263e-06</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.628154840760001</v>
       </c>
       <c r="C954" t="n">
-        <v>5.615150043886546e-06</v>
+        <v>5.764113460365636e-06</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.629072048242866</v>
       </c>
       <c r="C955" t="n">
-        <v>5.389830016145799e-06</v>
+        <v>5.438995448809591e-06</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.629989255725731</v>
       </c>
       <c r="C956" t="n">
-        <v>5.289386363882692e-06</v>
+        <v>5.229327416310478e-06</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.630906463208596</v>
       </c>
       <c r="C957" t="n">
-        <v>5.292940593232247e-06</v>
+        <v>5.126367709795642e-06</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.631823670691461</v>
       </c>
       <c r="C958" t="n">
-        <v>5.379626675348173e-06</v>
+        <v>5.121376191436087e-06</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.632740878174326</v>
       </c>
       <c r="C959" t="n">
-        <v>5.532804222718357e-06</v>
+        <v>5.206126391001908e-06</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.633658085657191</v>
       </c>
       <c r="C960" t="n">
-        <v>5.746191278357833e-06</v>
+        <v>5.373651005740627e-06</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.634575293140056</v>
       </c>
       <c r="C961" t="n">
-        <v>6.015064012617256e-06</v>
+        <v>5.617172138356654e-06</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.635492500622921</v>
       </c>
       <c r="C962" t="n">
-        <v>6.334698595847283e-06</v>
+        <v>5.929911891554407e-06</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.636409708105786</v>
       </c>
       <c r="C963" t="n">
-        <v>6.700371198398566e-06</v>
+        <v>6.305092368038297e-06</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.637326915588651</v>
       </c>
       <c r="C964" t="n">
-        <v>7.107357990621764e-06</v>
+        <v>6.73593567051274e-06</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.638244123071516</v>
       </c>
       <c r="C965" t="n">
-        <v>7.550935142867528e-06</v>
+        <v>7.215663901682148e-06</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.639161330554381</v>
       </c>
       <c r="C966" t="n">
-        <v>8.026378825486516e-06</v>
+        <v>7.737499164250938e-06</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.640078538037246</v>
       </c>
       <c r="C967" t="n">
-        <v>8.52896520882938e-06</v>
+        <v>8.29466356092352e-06</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.640995745520111</v>
       </c>
       <c r="C968" t="n">
-        <v>9.053970463246772e-06</v>
+        <v>8.880379194404307e-06</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.641912953002976</v>
       </c>
       <c r="C969" t="n">
-        <v>9.596670759089355e-06</v>
+        <v>9.487868167397719e-06</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.642830160485841</v>
       </c>
       <c r="C970" t="n">
-        <v>1.015234226670778e-05</v>
+        <v>1.011035258260816e-05</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.643747367968706</v>
       </c>
       <c r="C971" t="n">
-        <v>1.07162611564527e-05</v>
+        <v>1.074105454274006e-05</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.644664575451571</v>
       </c>
       <c r="C972" t="n">
-        <v>1.128370359867477e-05</v>
+        <v>1.137319615049782e-05</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.645581782934435</v>
       </c>
       <c r="C973" t="n">
-        <v>1.184994576372465e-05</v>
+        <v>1.199999950858585e-05</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.6464989904173</v>
       </c>
       <c r="C974" t="n">
-        <v>1.241026382195298e-05</v>
+        <v>1.261468671970858e-05</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.647416197900165</v>
       </c>
       <c r="C975" t="n">
-        <v>1.295993394371043e-05</v>
+        <v>1.32104798865704e-05</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.64833340538303</v>
       </c>
       <c r="C976" t="n">
-        <v>1.349423229934766e-05</v>
+        <v>1.378060111187575e-05</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.649250612865895</v>
       </c>
       <c r="C977" t="n">
-        <v>1.400843505921531e-05</v>
+        <v>1.431827249832904e-05</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.65016782034876</v>
       </c>
       <c r="C978" t="n">
-        <v>1.449786245604721e-05</v>
+        <v>1.481687304418201e-05</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.651085027831625</v>
       </c>
       <c r="C979" t="n">
-        <v>1.495866068826924e-05</v>
+        <v>1.527272281283103e-05</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.65200223531449</v>
       </c>
       <c r="C980" t="n">
-        <v>1.538770951139016e-05</v>
+        <v>1.568475388798856e-05</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.652919442797355</v>
       </c>
       <c r="C981" t="n">
-        <v>1.578191417998304e-05</v>
+        <v>1.605198914940137e-05</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.653836650280219</v>
       </c>
       <c r="C982" t="n">
-        <v>1.613817994862066e-05</v>
+        <v>1.637345147681599e-05</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.654753857763085</v>
       </c>
       <c r="C983" t="n">
-        <v>1.645341207187709e-05</v>
+        <v>1.664816374998008e-05</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.655671065245949</v>
       </c>
       <c r="C984" t="n">
-        <v>1.672451580432419e-05</v>
+        <v>1.687514884863937e-05</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.656588272728815</v>
       </c>
       <c r="C985" t="n">
-        <v>1.694839640053611e-05</v>
+        <v>1.705342965254155e-05</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.657505480211679</v>
       </c>
       <c r="C986" t="n">
-        <v>1.712195911508507e-05</v>
+        <v>1.718202904143271e-05</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.658422687694544</v>
       </c>
       <c r="C987" t="n">
-        <v>1.724210920254473e-05</v>
+        <v>1.72599698950601e-05</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.659339895177409</v>
       </c>
       <c r="C988" t="n">
-        <v>1.730575191748799e-05</v>
+        <v>1.728627509317037e-05</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.660257102660274</v>
       </c>
       <c r="C989" t="n">
-        <v>1.730979251448796e-05</v>
+        <v>1.725996751551033e-05</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.661174310143139</v>
       </c>
       <c r="C990" t="n">
-        <v>1.725113624811771e-05</v>
+        <v>1.718007004182677e-05</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.662091517626004</v>
       </c>
       <c r="C991" t="n">
-        <v>1.712668837295034e-05</v>
+        <v>1.704560555186648e-05</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.663008725108869</v>
       </c>
       <c r="C992" t="n">
-        <v>1.693335414355893e-05</v>
+        <v>1.685559692537627e-05</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.663925932591733</v>
       </c>
       <c r="C993" t="n">
-        <v>1.666803881451659e-05</v>
+        <v>1.660906704210294e-05</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.664843140074598</v>
       </c>
       <c r="C994" t="n">
-        <v>1.632764764039639e-05</v>
+        <v>1.630503878179327e-05</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.665760347557463</v>
       </c>
       <c r="C995" t="n">
-        <v>1.590908587577143e-05</v>
+        <v>1.594253502419407e-05</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.666677555040328</v>
       </c>
       <c r="C996" t="n">
-        <v>1.540925877521479e-05</v>
+        <v>1.552057864905214e-05</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.667594762523193</v>
       </c>
       <c r="C997" t="n">
-        <v>1.482507159329957e-05</v>
+        <v>1.503819253611428e-05</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.668511970006058</v>
       </c>
       <c r="C998" t="n">
-        <v>1.416136002514033e-05</v>
+        <v>1.44988130717891e-05</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.669429177488923</v>
       </c>
       <c r="C999" t="n">
-        <v>1.352319114625549e-05</v>
+        <v>1.396165814198995e-05</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.670346384971788</v>
       </c>
       <c r="C1000" t="n">
-        <v>1.30843319164075e-05</v>
+        <v>1.352417899371423e-05</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1001" t="n">
-        <v>1.301989000307849e-05</v>
+        <v>1.328457301440654e-05</v>
       </c>
     </row>
   </sheetData>
